--- a/results_analysis/spark_motorFailure_02_hold2_surprise2.xlsx
+++ b/results_analysis/spark_motorFailure_02_hold2_surprise2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\MLTool_matlab\results_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A61F89-A911-44DE-8B6F-DF92A68C718C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D152319B-4975-4AEA-A2EE-7509604787DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="734" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -526,7 +526,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -627,16 +627,10 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -723,9 +717,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -733,9 +724,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -750,7 +738,16 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -769,6 +766,36 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1072,19 +1099,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1153,7 +1180,7 @@
       <c r="J5" s="12">
         <v>0.67763157894736903</v>
       </c>
-      <c r="K5" s="43">
+      <c r="K5" s="41">
         <v>0.94078947368421095</v>
       </c>
     </row>
@@ -1282,7 +1309,7 @@
       <c r="J9" s="23">
         <v>0.93421052631579005</v>
       </c>
-      <c r="K9" s="42">
+      <c r="K9" s="40">
         <v>0.94736842105263197</v>
       </c>
     </row>
@@ -1411,7 +1438,7 @@
       <c r="J13" s="23">
         <v>0.88815789473684204</v>
       </c>
-      <c r="K13" s="42">
+      <c r="K13" s="40">
         <v>0.91447368421052599</v>
       </c>
     </row>
@@ -1429,7 +1456,7 @@
       <c r="F14" s="15">
         <v>0.92105263157894701</v>
       </c>
-      <c r="G14" s="40">
+      <c r="G14" s="38">
         <v>1</v>
       </c>
       <c r="H14" s="15">
@@ -1519,28 +1546,60 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="25"/>
+      <c r="D17" s="81">
+        <v>0.73026315789473695</v>
+      </c>
+      <c r="E17" s="82">
+        <v>0.92763157894736903</v>
+      </c>
+      <c r="F17" s="82">
+        <v>0.88815789473684204</v>
+      </c>
+      <c r="G17" s="82">
+        <v>0.96710526315789502</v>
+      </c>
+      <c r="H17" s="82">
+        <v>0.95394736842105299</v>
+      </c>
+      <c r="I17" s="82">
+        <v>0.96052631578947401</v>
+      </c>
+      <c r="J17" s="82">
+        <v>0.73026315789473695</v>
+      </c>
+      <c r="K17" s="83">
+        <v>0.92763157894736903</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="17"/>
+      <c r="D18" s="84">
+        <v>0.71710526315789502</v>
+      </c>
+      <c r="E18" s="85">
+        <v>1</v>
+      </c>
+      <c r="F18" s="85">
+        <v>0.82236842105263197</v>
+      </c>
+      <c r="G18" s="85">
+        <v>1</v>
+      </c>
+      <c r="H18" s="85">
+        <v>0.98684210526315796</v>
+      </c>
+      <c r="I18" s="85">
+        <v>0.93421052631579005</v>
+      </c>
+      <c r="J18" s="85">
+        <v>0.75657894736842102</v>
+      </c>
+      <c r="K18" s="86">
+        <v>0.96710526315789502</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
@@ -1550,14 +1609,30 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="17"/>
+      <c r="D19" s="84">
+        <v>0.77631578947368396</v>
+      </c>
+      <c r="E19" s="85">
+        <v>0.92763157894736903</v>
+      </c>
+      <c r="F19" s="85">
+        <v>0.88815789473684204</v>
+      </c>
+      <c r="G19" s="85">
+        <v>0.94078947368421095</v>
+      </c>
+      <c r="H19" s="85">
+        <v>0.96052631578947401</v>
+      </c>
+      <c r="I19" s="85">
+        <v>0.94078947368421095</v>
+      </c>
+      <c r="J19" s="85">
+        <v>0.73684210526315796</v>
+      </c>
+      <c r="K19" s="86">
+        <v>0.94736842105263197</v>
+      </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
@@ -1565,14 +1640,30 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="21"/>
+      <c r="D20" s="87">
+        <v>0.76973684210526305</v>
+      </c>
+      <c r="E20" s="88">
+        <v>1</v>
+      </c>
+      <c r="F20" s="88">
+        <v>0.90131578947368396</v>
+      </c>
+      <c r="G20" s="88">
+        <v>0.93421052631579005</v>
+      </c>
+      <c r="H20" s="88">
+        <v>0.98684210526315796</v>
+      </c>
+      <c r="I20" s="88">
+        <v>0.94736842105263197</v>
+      </c>
+      <c r="J20" s="88">
+        <v>0.76315789473684204</v>
+      </c>
+      <c r="K20" s="89">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D21" s="28"/>
@@ -1936,19 +2027,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2293,7 +2384,7 @@
       <c r="F14" s="15">
         <v>0.82236842105263197</v>
       </c>
-      <c r="G14" s="40">
+      <c r="G14" s="38">
         <v>0.94605263157894803</v>
       </c>
       <c r="H14" s="16">
@@ -2383,28 +2474,60 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="34"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="25"/>
+      <c r="D17" s="81">
+        <v>0.68618421052631595</v>
+      </c>
+      <c r="E17" s="82">
+        <v>0.79802631578947403</v>
+      </c>
+      <c r="F17" s="82">
+        <v>0.78026315789473699</v>
+      </c>
+      <c r="G17" s="82">
+        <v>0.93684210526315803</v>
+      </c>
+      <c r="H17" s="82">
+        <v>0.884210526315789</v>
+      </c>
+      <c r="I17" s="82">
+        <v>0.83684210526315805</v>
+      </c>
+      <c r="J17" s="82">
+        <v>0.68026315789473701</v>
+      </c>
+      <c r="K17" s="83">
+        <v>0.740789473684211</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="37"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="32"/>
+      <c r="D18" s="84">
+        <v>0.68092105263157898</v>
+      </c>
+      <c r="E18" s="85">
+        <v>0.90197368421052604</v>
+      </c>
+      <c r="F18" s="85">
+        <v>0.74802631578947398</v>
+      </c>
+      <c r="G18" s="85">
+        <v>0.92236842105263195</v>
+      </c>
+      <c r="H18" s="85">
+        <v>0.94539473684210495</v>
+      </c>
+      <c r="I18" s="85">
+        <v>0.85197368421052599</v>
+      </c>
+      <c r="J18" s="85">
+        <v>0.64473684210526305</v>
+      </c>
+      <c r="K18" s="86">
+        <v>0.91973684210526296</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
@@ -2414,14 +2537,30 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="17"/>
+      <c r="D19" s="84">
+        <v>0.71447368421052604</v>
+      </c>
+      <c r="E19" s="85">
+        <v>0.77434210526315805</v>
+      </c>
+      <c r="F19" s="85">
+        <v>0.78092105263157896</v>
+      </c>
+      <c r="G19" s="85">
+        <v>0.89802631578947401</v>
+      </c>
+      <c r="H19" s="85">
+        <v>0.794078947368421</v>
+      </c>
+      <c r="I19" s="85">
+        <v>0.79342105263157903</v>
+      </c>
+      <c r="J19" s="85">
+        <v>0.68947368421052602</v>
+      </c>
+      <c r="K19" s="86">
+        <v>0.79605263157894701</v>
+      </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
@@ -2429,14 +2568,30 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="21"/>
+      <c r="D20" s="87">
+        <v>0.70197368421052597</v>
+      </c>
+      <c r="E20" s="88">
+        <v>0.92302631578947403</v>
+      </c>
+      <c r="F20" s="88">
+        <v>0.78157894736842104</v>
+      </c>
+      <c r="G20" s="88">
+        <v>0.90394736842105305</v>
+      </c>
+      <c r="H20" s="88">
+        <v>0.95657894736842097</v>
+      </c>
+      <c r="I20" s="88">
+        <v>0.80921052631578905</v>
+      </c>
+      <c r="J20" s="88">
+        <v>0.68684210526315803</v>
+      </c>
+      <c r="K20" s="89">
+        <v>0.89736842105263204</v>
+      </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D21" s="28"/>
@@ -2800,19 +2955,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3157,7 +3312,7 @@
       <c r="F14" s="15">
         <v>0.83552631578947401</v>
       </c>
-      <c r="G14" s="40">
+      <c r="G14" s="38">
         <v>0.95394736842105299</v>
       </c>
       <c r="H14" s="15">
@@ -3247,28 +3402,60 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="16"/>
+      <c r="D17" s="85">
+        <v>0.69078947368421095</v>
+      </c>
+      <c r="E17" s="85">
+        <v>0.77631578947368396</v>
+      </c>
+      <c r="F17" s="85">
+        <v>0.77302631578947401</v>
+      </c>
+      <c r="G17" s="85">
+        <v>0.94736842105263197</v>
+      </c>
+      <c r="H17" s="85">
+        <v>0.92105263157894701</v>
+      </c>
+      <c r="I17" s="85">
+        <v>0.89144736842105299</v>
+      </c>
+      <c r="J17" s="85">
+        <v>0.69736842105263197</v>
+      </c>
+      <c r="K17" s="85">
+        <v>0.70394736842105299</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="16"/>
+      <c r="D18" s="85">
+        <v>0.68421052631579005</v>
+      </c>
+      <c r="E18" s="85">
+        <v>0.91118421052631604</v>
+      </c>
+      <c r="F18" s="85">
+        <v>0.75328947368421095</v>
+      </c>
+      <c r="G18" s="85">
+        <v>0.90789473684210498</v>
+      </c>
+      <c r="H18" s="85">
+        <v>0.94407894736842102</v>
+      </c>
+      <c r="I18" s="85">
+        <v>0.88815789473684204</v>
+      </c>
+      <c r="J18" s="85">
+        <v>0.65789473684210498</v>
+      </c>
+      <c r="K18" s="85">
+        <v>0.92434210526315796</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
@@ -3278,14 +3465,30 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
+      <c r="D19" s="85">
+        <v>0.71381578947368396</v>
+      </c>
+      <c r="E19" s="85">
+        <v>0.75986842105263197</v>
+      </c>
+      <c r="F19" s="85">
+        <v>0.79934210526315796</v>
+      </c>
+      <c r="G19" s="85">
+        <v>0.92434210526315796</v>
+      </c>
+      <c r="H19" s="85">
+        <v>0.74671052631579005</v>
+      </c>
+      <c r="I19" s="85">
+        <v>0.82236842105263197</v>
+      </c>
+      <c r="J19" s="85">
+        <v>0.71052631578947401</v>
+      </c>
+      <c r="K19" s="85">
+        <v>0.81907894736842102</v>
+      </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
@@ -3293,14 +3496,30 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="16"/>
+      <c r="D20" s="85">
+        <v>0.71381578947368396</v>
+      </c>
+      <c r="E20" s="85">
+        <v>0.91776315789473695</v>
+      </c>
+      <c r="F20" s="85">
+        <v>0.76315789473684204</v>
+      </c>
+      <c r="G20" s="85">
+        <v>0.90789473684210498</v>
+      </c>
+      <c r="H20" s="85">
+        <v>0.95394736842105299</v>
+      </c>
+      <c r="I20" s="85">
+        <v>0.82236842105263197</v>
+      </c>
+      <c r="J20" s="85">
+        <v>0.68092105263157898</v>
+      </c>
+      <c r="K20" s="85">
+        <v>0.92105263157894701</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B22" s="11"/>
@@ -3506,19 +3725,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3566,28 +3785,28 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="38">
+      <c r="D5" s="36">
         <v>31</v>
       </c>
-      <c r="E5" s="38">
+      <c r="E5" s="36">
         <v>218</v>
       </c>
-      <c r="F5" s="38">
+      <c r="F5" s="36">
         <v>133</v>
       </c>
-      <c r="G5" s="39">
+      <c r="G5" s="37">
         <v>239</v>
       </c>
-      <c r="H5" s="39">
+      <c r="H5" s="37">
         <v>241</v>
       </c>
-      <c r="I5" s="39">
+      <c r="I5" s="37">
         <v>195</v>
       </c>
-      <c r="J5" s="38">
+      <c r="J5" s="36">
         <v>9</v>
       </c>
-      <c r="K5" s="38">
+      <c r="K5" s="36">
         <v>267</v>
       </c>
     </row>
@@ -3596,28 +3815,28 @@
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="38">
+      <c r="D6" s="36">
         <v>16</v>
       </c>
-      <c r="E6" s="38">
+      <c r="E6" s="36">
         <v>274</v>
       </c>
-      <c r="F6" s="38">
+      <c r="F6" s="36">
         <v>103</v>
       </c>
-      <c r="G6" s="39">
+      <c r="G6" s="37">
         <v>221</v>
       </c>
-      <c r="H6" s="39">
+      <c r="H6" s="37">
         <v>216</v>
       </c>
-      <c r="I6" s="39">
+      <c r="I6" s="37">
         <v>269</v>
       </c>
-      <c r="J6" s="38">
+      <c r="J6" s="36">
         <v>12</v>
       </c>
-      <c r="K6" s="39">
+      <c r="K6" s="37">
         <v>217</v>
       </c>
     </row>
@@ -3629,28 +3848,28 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="38">
+      <c r="D7" s="36">
         <v>42</v>
       </c>
-      <c r="E7" s="38">
+      <c r="E7" s="36">
         <v>216</v>
       </c>
-      <c r="F7" s="38">
+      <c r="F7" s="36">
         <v>154</v>
       </c>
-      <c r="G7" s="39">
+      <c r="G7" s="37">
         <v>217</v>
       </c>
-      <c r="H7" s="39">
+      <c r="H7" s="37">
         <v>217</v>
       </c>
-      <c r="I7" s="39">
+      <c r="I7" s="37">
         <v>281</v>
       </c>
-      <c r="J7" s="38">
+      <c r="J7" s="36">
         <v>32</v>
       </c>
-      <c r="K7" s="38">
+      <c r="K7" s="36">
         <v>216</v>
       </c>
     </row>
@@ -3660,28 +3879,28 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="38">
+      <c r="D8" s="36">
         <v>30</v>
       </c>
-      <c r="E8" s="38">
+      <c r="E8" s="36">
         <v>281</v>
       </c>
-      <c r="F8" s="38">
+      <c r="F8" s="36">
         <v>29</v>
       </c>
-      <c r="G8" s="39">
+      <c r="G8" s="37">
         <v>218</v>
       </c>
-      <c r="H8" s="38">
+      <c r="H8" s="36">
         <v>218</v>
       </c>
-      <c r="I8" s="39">
+      <c r="I8" s="37">
         <v>281</v>
       </c>
-      <c r="J8" s="38">
+      <c r="J8" s="36">
         <v>29</v>
       </c>
-      <c r="K8" s="39">
+      <c r="K8" s="37">
         <v>216</v>
       </c>
     </row>
@@ -3695,28 +3914,28 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="38">
+      <c r="D9" s="36">
         <v>185</v>
       </c>
-      <c r="E9" s="38">
+      <c r="E9" s="36">
         <v>164</v>
       </c>
-      <c r="F9" s="38">
+      <c r="F9" s="36">
         <v>188</v>
       </c>
-      <c r="G9" s="39">
+      <c r="G9" s="37">
         <v>216</v>
       </c>
-      <c r="H9" s="39">
+      <c r="H9" s="37">
         <v>217</v>
       </c>
-      <c r="I9" s="38">
-        <v>1</v>
-      </c>
-      <c r="J9" s="38">
+      <c r="I9" s="36">
+        <v>1</v>
+      </c>
+      <c r="J9" s="36">
         <v>184</v>
       </c>
-      <c r="K9" s="39">
+      <c r="K9" s="37">
         <v>215</v>
       </c>
     </row>
@@ -3725,28 +3944,28 @@
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="38">
+      <c r="D10" s="36">
         <v>183</v>
       </c>
-      <c r="E10" s="38">
+      <c r="E10" s="36">
         <v>216</v>
       </c>
-      <c r="F10" s="38">
+      <c r="F10" s="36">
         <v>152</v>
       </c>
-      <c r="G10" s="39">
+      <c r="G10" s="37">
         <v>217</v>
       </c>
-      <c r="H10" s="39">
+      <c r="H10" s="37">
         <v>216</v>
       </c>
-      <c r="I10" s="38">
-        <v>1</v>
-      </c>
-      <c r="J10" s="38">
+      <c r="I10" s="36">
+        <v>1</v>
+      </c>
+      <c r="J10" s="36">
         <v>158</v>
       </c>
-      <c r="K10" s="39">
+      <c r="K10" s="37">
         <v>216</v>
       </c>
     </row>
@@ -3758,28 +3977,28 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="39">
+      <c r="D11" s="37">
         <v>54</v>
       </c>
-      <c r="E11" s="38">
+      <c r="E11" s="36">
         <v>217</v>
       </c>
-      <c r="F11" s="38">
+      <c r="F11" s="36">
         <v>156</v>
       </c>
-      <c r="G11" s="39">
+      <c r="G11" s="37">
         <v>201</v>
       </c>
-      <c r="H11" s="39">
+      <c r="H11" s="37">
         <v>215</v>
       </c>
-      <c r="I11" s="38">
-        <v>2</v>
-      </c>
-      <c r="J11" s="38">
+      <c r="I11" s="36">
+        <v>2</v>
+      </c>
+      <c r="J11" s="36">
         <v>157</v>
       </c>
-      <c r="K11" s="39">
+      <c r="K11" s="37">
         <v>217</v>
       </c>
     </row>
@@ -3789,28 +4008,28 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="38">
+      <c r="D12" s="36">
         <v>180</v>
       </c>
-      <c r="E12" s="38">
+      <c r="E12" s="36">
         <v>217</v>
       </c>
-      <c r="F12" s="38">
+      <c r="F12" s="36">
         <v>177</v>
       </c>
-      <c r="G12" s="39">
+      <c r="G12" s="37">
         <v>217</v>
       </c>
-      <c r="H12" s="39">
+      <c r="H12" s="37">
         <v>218</v>
       </c>
-      <c r="I12" s="38">
-        <v>2</v>
-      </c>
-      <c r="J12" s="38">
+      <c r="I12" s="36">
+        <v>2</v>
+      </c>
+      <c r="J12" s="36">
         <v>178</v>
       </c>
-      <c r="K12" s="39">
+      <c r="K12" s="37">
         <v>217</v>
       </c>
     </row>
@@ -3824,28 +4043,28 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="39">
+      <c r="D13" s="37">
         <v>77</v>
       </c>
-      <c r="E13" s="38">
+      <c r="E13" s="36">
         <v>80</v>
       </c>
-      <c r="F13" s="38">
+      <c r="F13" s="36">
         <v>71</v>
       </c>
-      <c r="G13" s="39">
+      <c r="G13" s="37">
         <v>79</v>
       </c>
-      <c r="H13" s="38">
+      <c r="H13" s="36">
         <v>75</v>
       </c>
-      <c r="I13" s="39">
+      <c r="I13" s="37">
         <v>69</v>
       </c>
-      <c r="J13" s="38">
+      <c r="J13" s="36">
         <v>66</v>
       </c>
-      <c r="K13" s="39">
+      <c r="K13" s="37">
         <v>72</v>
       </c>
     </row>
@@ -3854,28 +4073,28 @@
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="38">
+      <c r="D14" s="36">
         <v>66</v>
       </c>
-      <c r="E14" s="38">
+      <c r="E14" s="36">
         <v>45</v>
       </c>
-      <c r="F14" s="38">
+      <c r="F14" s="36">
         <v>87</v>
       </c>
-      <c r="G14" s="41">
+      <c r="G14" s="39">
         <v>47</v>
       </c>
-      <c r="H14" s="38">
+      <c r="H14" s="36">
         <v>78</v>
       </c>
-      <c r="I14" s="39">
+      <c r="I14" s="37">
         <v>66</v>
       </c>
-      <c r="J14" s="38">
+      <c r="J14" s="36">
         <v>65</v>
       </c>
-      <c r="K14" s="39">
+      <c r="K14" s="37">
         <v>45</v>
       </c>
     </row>
@@ -3887,28 +4106,28 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="38">
-        <v>2</v>
-      </c>
-      <c r="E15" s="38">
-        <v>2</v>
-      </c>
-      <c r="F15" s="38">
-        <v>2</v>
-      </c>
-      <c r="G15" s="38">
-        <v>2</v>
-      </c>
-      <c r="H15" s="38">
-        <v>2</v>
-      </c>
-      <c r="I15" s="38">
-        <v>2</v>
-      </c>
-      <c r="J15" s="38">
-        <v>2</v>
-      </c>
-      <c r="K15" s="38">
+      <c r="D15" s="36">
+        <v>2</v>
+      </c>
+      <c r="E15" s="36">
+        <v>2</v>
+      </c>
+      <c r="F15" s="36">
+        <v>2</v>
+      </c>
+      <c r="G15" s="36">
+        <v>2</v>
+      </c>
+      <c r="H15" s="36">
+        <v>2</v>
+      </c>
+      <c r="I15" s="36">
+        <v>2</v>
+      </c>
+      <c r="J15" s="36">
+        <v>2</v>
+      </c>
+      <c r="K15" s="36">
         <v>2</v>
       </c>
     </row>
@@ -3918,28 +4137,28 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="38">
-        <v>2</v>
-      </c>
-      <c r="E16" s="38">
-        <v>2</v>
-      </c>
-      <c r="F16" s="38">
+      <c r="D16" s="36">
+        <v>2</v>
+      </c>
+      <c r="E16" s="36">
+        <v>2</v>
+      </c>
+      <c r="F16" s="36">
         <v>12</v>
       </c>
-      <c r="G16" s="38">
-        <v>2</v>
-      </c>
-      <c r="H16" s="38">
-        <v>2</v>
-      </c>
-      <c r="I16" s="38">
-        <v>2</v>
-      </c>
-      <c r="J16" s="38">
-        <v>2</v>
-      </c>
-      <c r="K16" s="38">
+      <c r="G16" s="36">
+        <v>2</v>
+      </c>
+      <c r="H16" s="36">
+        <v>2</v>
+      </c>
+      <c r="I16" s="36">
+        <v>2</v>
+      </c>
+      <c r="J16" s="36">
+        <v>2</v>
+      </c>
+      <c r="K16" s="36">
         <v>2</v>
       </c>
     </row>
@@ -3953,28 +4172,60 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="38"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="39"/>
+      <c r="D17" s="90">
+        <v>7</v>
+      </c>
+      <c r="E17" s="90">
+        <v>218</v>
+      </c>
+      <c r="F17" s="90">
+        <v>128</v>
+      </c>
+      <c r="G17" s="90">
+        <v>219</v>
+      </c>
+      <c r="H17" s="90">
+        <v>223</v>
+      </c>
+      <c r="I17" s="90">
+        <v>224</v>
+      </c>
+      <c r="J17" s="90">
+        <v>56</v>
+      </c>
+      <c r="K17" s="90">
+        <v>221</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="39"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="39"/>
+      <c r="D18" s="90">
+        <v>18</v>
+      </c>
+      <c r="E18" s="90">
+        <v>50</v>
+      </c>
+      <c r="F18" s="90">
+        <v>57</v>
+      </c>
+      <c r="G18" s="90">
+        <v>45</v>
+      </c>
+      <c r="H18" s="90">
+        <v>143</v>
+      </c>
+      <c r="I18" s="90">
+        <v>159</v>
+      </c>
+      <c r="J18" s="90">
+        <v>12</v>
+      </c>
+      <c r="K18" s="90">
+        <v>170</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
@@ -3984,14 +4235,30 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
+      <c r="D19" s="90">
+        <v>16</v>
+      </c>
+      <c r="E19" s="90">
+        <v>218</v>
+      </c>
+      <c r="F19" s="90">
+        <v>113</v>
+      </c>
+      <c r="G19" s="90">
+        <v>220</v>
+      </c>
+      <c r="H19" s="90">
+        <v>211</v>
+      </c>
+      <c r="I19" s="90">
+        <v>213</v>
+      </c>
+      <c r="J19" s="90">
+        <v>20</v>
+      </c>
+      <c r="K19" s="90">
+        <v>205</v>
+      </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
@@ -3999,14 +4266,30 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="39"/>
+      <c r="D20" s="90">
+        <v>21</v>
+      </c>
+      <c r="E20" s="90">
+        <v>222</v>
+      </c>
+      <c r="F20" s="90">
+        <v>139</v>
+      </c>
+      <c r="G20" s="90">
+        <v>79</v>
+      </c>
+      <c r="H20" s="90">
+        <v>115</v>
+      </c>
+      <c r="I20" s="90">
+        <v>176</v>
+      </c>
+      <c r="J20" s="90">
+        <v>12</v>
+      </c>
+      <c r="K20" s="90">
+        <v>55</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B22" s="11"/>
@@ -4212,19 +4495,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4272,28 +4555,28 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="38">
+      <c r="D5" s="36">
         <v>17.100000000000001</v>
       </c>
-      <c r="E5" s="38">
+      <c r="E5" s="36">
         <v>100.1</v>
       </c>
-      <c r="F5" s="38">
+      <c r="F5" s="36">
         <v>46.8</v>
       </c>
-      <c r="G5" s="39">
+      <c r="G5" s="37">
         <v>151.4</v>
       </c>
-      <c r="H5" s="39">
+      <c r="H5" s="37">
         <v>178.6</v>
       </c>
-      <c r="I5" s="39">
+      <c r="I5" s="37">
         <v>176.3</v>
       </c>
-      <c r="J5" s="38">
+      <c r="J5" s="36">
         <v>7.5</v>
       </c>
-      <c r="K5" s="38">
+      <c r="K5" s="36">
         <v>95.6</v>
       </c>
     </row>
@@ -4302,28 +4585,28 @@
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="38">
+      <c r="D6" s="36">
         <v>16.7</v>
       </c>
-      <c r="E6" s="38">
+      <c r="E6" s="36">
         <v>156.80000000000001</v>
       </c>
-      <c r="F6" s="38">
+      <c r="F6" s="36">
         <v>33.1</v>
       </c>
-      <c r="G6" s="39">
+      <c r="G6" s="37">
         <v>152.1</v>
       </c>
-      <c r="H6" s="39">
+      <c r="H6" s="37">
         <v>164.9</v>
       </c>
-      <c r="I6" s="39">
+      <c r="I6" s="37">
         <v>173.8</v>
       </c>
-      <c r="J6" s="38">
+      <c r="J6" s="36">
         <v>7.6</v>
       </c>
-      <c r="K6" s="39">
+      <c r="K6" s="37">
         <v>158.1</v>
       </c>
     </row>
@@ -4335,28 +4618,28 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="38">
+      <c r="D7" s="36">
         <v>22.3</v>
       </c>
-      <c r="E7" s="38">
+      <c r="E7" s="36">
         <v>85.7</v>
       </c>
-      <c r="F7" s="38">
+      <c r="F7" s="36">
         <v>68.7</v>
       </c>
-      <c r="G7" s="39">
+      <c r="G7" s="37">
         <v>156.5</v>
       </c>
-      <c r="H7" s="39">
+      <c r="H7" s="37">
         <v>158.80000000000001</v>
       </c>
-      <c r="I7" s="39">
+      <c r="I7" s="37">
         <v>202.7</v>
       </c>
-      <c r="J7" s="38">
+      <c r="J7" s="36">
         <v>12.4</v>
       </c>
-      <c r="K7" s="38">
+      <c r="K7" s="36">
         <v>135.5</v>
       </c>
     </row>
@@ -4366,28 +4649,28 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="38">
+      <c r="D8" s="36">
         <v>20.399999999999999</v>
       </c>
-      <c r="E8" s="38">
+      <c r="E8" s="36">
         <v>132.5</v>
       </c>
-      <c r="F8" s="38">
+      <c r="F8" s="36">
         <v>47.4</v>
       </c>
-      <c r="G8" s="39">
+      <c r="G8" s="37">
         <v>204.5</v>
       </c>
-      <c r="H8" s="38">
+      <c r="H8" s="36">
         <v>136.4</v>
       </c>
-      <c r="I8" s="39">
+      <c r="I8" s="37">
         <v>168.1</v>
       </c>
-      <c r="J8" s="38">
+      <c r="J8" s="36">
         <v>15.6</v>
       </c>
-      <c r="K8" s="39">
+      <c r="K8" s="37">
         <v>165.8</v>
       </c>
     </row>
@@ -4401,28 +4684,28 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="38">
+      <c r="D9" s="36">
         <v>73.2</v>
       </c>
-      <c r="E9" s="38">
+      <c r="E9" s="36">
         <v>46.8</v>
       </c>
-      <c r="F9" s="38">
+      <c r="F9" s="36">
         <v>124.9</v>
       </c>
-      <c r="G9" s="39">
+      <c r="G9" s="37">
         <v>160.4</v>
       </c>
-      <c r="H9" s="39">
+      <c r="H9" s="37">
         <v>195.5</v>
       </c>
-      <c r="I9" s="38">
-        <v>1</v>
-      </c>
-      <c r="J9" s="38">
+      <c r="I9" s="36">
+        <v>1</v>
+      </c>
+      <c r="J9" s="36">
         <v>73.2</v>
       </c>
-      <c r="K9" s="39">
+      <c r="K9" s="37">
         <v>195.6</v>
       </c>
     </row>
@@ -4431,28 +4714,28 @@
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="38">
+      <c r="D10" s="36">
         <v>76.3</v>
       </c>
-      <c r="E10" s="38">
+      <c r="E10" s="36">
         <v>129.5</v>
       </c>
-      <c r="F10" s="38">
+      <c r="F10" s="36">
         <v>51.6</v>
       </c>
-      <c r="G10" s="39">
+      <c r="G10" s="37">
         <v>160.30000000000001</v>
       </c>
-      <c r="H10" s="39">
+      <c r="H10" s="37">
         <v>215</v>
       </c>
-      <c r="I10" s="38">
-        <v>1</v>
-      </c>
-      <c r="J10" s="38">
+      <c r="I10" s="36">
+        <v>1</v>
+      </c>
+      <c r="J10" s="36">
         <v>67</v>
       </c>
-      <c r="K10" s="39">
+      <c r="K10" s="37">
         <v>180.7</v>
       </c>
     </row>
@@ -4464,28 +4747,28 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="39">
+      <c r="D11" s="37">
         <v>60</v>
       </c>
-      <c r="E11" s="38">
+      <c r="E11" s="36">
         <v>112</v>
       </c>
-      <c r="F11" s="38">
+      <c r="F11" s="36">
         <v>64.7</v>
       </c>
-      <c r="G11" s="39">
+      <c r="G11" s="37">
         <v>142.4</v>
       </c>
-      <c r="H11" s="39">
+      <c r="H11" s="37">
         <v>178</v>
       </c>
-      <c r="I11" s="38">
-        <v>2</v>
-      </c>
-      <c r="J11" s="38">
+      <c r="I11" s="36">
+        <v>2</v>
+      </c>
+      <c r="J11" s="36">
         <v>40.6</v>
       </c>
-      <c r="K11" s="39">
+      <c r="K11" s="37">
         <v>117.4</v>
       </c>
     </row>
@@ -4495,28 +4778,28 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="38">
+      <c r="D12" s="36">
         <v>67.900000000000006</v>
       </c>
-      <c r="E12" s="38">
+      <c r="E12" s="36">
         <v>134</v>
       </c>
-      <c r="F12" s="38">
+      <c r="F12" s="36">
         <v>66.099999999999994</v>
       </c>
-      <c r="G12" s="39">
+      <c r="G12" s="37">
         <v>149</v>
       </c>
-      <c r="H12" s="39">
+      <c r="H12" s="37">
         <v>174.7</v>
       </c>
-      <c r="I12" s="38">
-        <v>2</v>
-      </c>
-      <c r="J12" s="38">
+      <c r="I12" s="36">
+        <v>2</v>
+      </c>
+      <c r="J12" s="36">
         <v>62.2</v>
       </c>
-      <c r="K12" s="39">
+      <c r="K12" s="37">
         <v>135.30000000000001</v>
       </c>
     </row>
@@ -4530,28 +4813,28 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="39">
+      <c r="D13" s="37">
         <v>70</v>
       </c>
-      <c r="E13" s="38">
+      <c r="E13" s="36">
         <v>75.2</v>
       </c>
-      <c r="F13" s="38">
+      <c r="F13" s="36">
         <v>52.8</v>
       </c>
-      <c r="G13" s="39">
+      <c r="G13" s="37">
         <v>64.900000000000006</v>
       </c>
-      <c r="H13" s="38">
+      <c r="H13" s="36">
         <v>57.8</v>
       </c>
-      <c r="I13" s="39">
+      <c r="I13" s="37">
         <v>67.5</v>
       </c>
-      <c r="J13" s="38">
+      <c r="J13" s="36">
         <v>48.6</v>
       </c>
-      <c r="K13" s="39">
+      <c r="K13" s="37">
         <v>59.7</v>
       </c>
     </row>
@@ -4560,28 +4843,28 @@
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="38">
+      <c r="D14" s="36">
         <v>67.8</v>
       </c>
-      <c r="E14" s="38">
+      <c r="E14" s="36">
         <v>49.8</v>
       </c>
-      <c r="F14" s="38">
+      <c r="F14" s="36">
         <v>57.7</v>
       </c>
-      <c r="G14" s="41">
+      <c r="G14" s="39">
         <v>58.9</v>
       </c>
-      <c r="H14" s="38">
+      <c r="H14" s="36">
         <v>67.900000000000006</v>
       </c>
-      <c r="I14" s="39">
+      <c r="I14" s="37">
         <v>67.400000000000006</v>
       </c>
-      <c r="J14" s="38">
+      <c r="J14" s="36">
         <v>41.1</v>
       </c>
-      <c r="K14" s="39">
+      <c r="K14" s="37">
         <v>55.7</v>
       </c>
     </row>
@@ -4593,28 +4876,28 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="38">
-        <v>2</v>
-      </c>
-      <c r="E15" s="38">
-        <v>2</v>
-      </c>
-      <c r="F15" s="38">
-        <v>2</v>
-      </c>
-      <c r="G15" s="38">
-        <v>2</v>
-      </c>
-      <c r="H15" s="38">
-        <v>2</v>
-      </c>
-      <c r="I15" s="38">
-        <v>2</v>
-      </c>
-      <c r="J15" s="38">
-        <v>2</v>
-      </c>
-      <c r="K15" s="38">
+      <c r="D15" s="36">
+        <v>2</v>
+      </c>
+      <c r="E15" s="36">
+        <v>2</v>
+      </c>
+      <c r="F15" s="36">
+        <v>2</v>
+      </c>
+      <c r="G15" s="36">
+        <v>2</v>
+      </c>
+      <c r="H15" s="36">
+        <v>2</v>
+      </c>
+      <c r="I15" s="36">
+        <v>2</v>
+      </c>
+      <c r="J15" s="36">
+        <v>2</v>
+      </c>
+      <c r="K15" s="36">
         <v>2</v>
       </c>
     </row>
@@ -4624,28 +4907,28 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="38">
-        <v>2</v>
-      </c>
-      <c r="E16" s="38">
-        <v>2</v>
-      </c>
-      <c r="F16" s="38">
+      <c r="D16" s="36">
+        <v>2</v>
+      </c>
+      <c r="E16" s="36">
+        <v>2</v>
+      </c>
+      <c r="F16" s="36">
         <v>8</v>
       </c>
-      <c r="G16" s="38">
-        <v>2</v>
-      </c>
-      <c r="H16" s="38">
-        <v>2</v>
-      </c>
-      <c r="I16" s="38">
-        <v>2</v>
-      </c>
-      <c r="J16" s="38">
-        <v>2</v>
-      </c>
-      <c r="K16" s="38">
+      <c r="G16" s="36">
+        <v>2</v>
+      </c>
+      <c r="H16" s="36">
+        <v>2</v>
+      </c>
+      <c r="I16" s="36">
+        <v>2</v>
+      </c>
+      <c r="J16" s="36">
+        <v>2</v>
+      </c>
+      <c r="K16" s="36">
         <v>2</v>
       </c>
     </row>
@@ -4659,28 +4942,60 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="38"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="39"/>
+      <c r="D17" s="90">
+        <v>8.5</v>
+      </c>
+      <c r="E17" s="90">
+        <v>118.5</v>
+      </c>
+      <c r="F17" s="90">
+        <v>65</v>
+      </c>
+      <c r="G17" s="90">
+        <v>210</v>
+      </c>
+      <c r="H17" s="90">
+        <v>183.2</v>
+      </c>
+      <c r="I17" s="90">
+        <v>139.80000000000001</v>
+      </c>
+      <c r="J17" s="90">
+        <v>20.8</v>
+      </c>
+      <c r="K17" s="90">
+        <v>73.7</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="39"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="39"/>
+      <c r="D18" s="90">
+        <v>12.1</v>
+      </c>
+      <c r="E18" s="90">
+        <v>106</v>
+      </c>
+      <c r="F18" s="90">
+        <v>55.1</v>
+      </c>
+      <c r="G18" s="90">
+        <v>115.4</v>
+      </c>
+      <c r="H18" s="90">
+        <v>115</v>
+      </c>
+      <c r="I18" s="90">
+        <v>112.1</v>
+      </c>
+      <c r="J18" s="90">
+        <v>10.3</v>
+      </c>
+      <c r="K18" s="90">
+        <v>118.5</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
@@ -4690,14 +5005,30 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
+      <c r="D19" s="90">
+        <v>17.5</v>
+      </c>
+      <c r="E19" s="90">
+        <v>101.7</v>
+      </c>
+      <c r="F19" s="90">
+        <v>62.4</v>
+      </c>
+      <c r="G19" s="90">
+        <v>196.5</v>
+      </c>
+      <c r="H19" s="90">
+        <v>99</v>
+      </c>
+      <c r="I19" s="90">
+        <v>115</v>
+      </c>
+      <c r="J19" s="90">
+        <v>16.5</v>
+      </c>
+      <c r="K19" s="90">
+        <v>128.19999999999999</v>
+      </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
@@ -4705,14 +5036,30 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="39"/>
+      <c r="D20" s="90">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="E20" s="90">
+        <v>144.69999999999999</v>
+      </c>
+      <c r="F20" s="90">
+        <v>70.7</v>
+      </c>
+      <c r="G20" s="90">
+        <v>100</v>
+      </c>
+      <c r="H20" s="90">
+        <v>114</v>
+      </c>
+      <c r="I20" s="90">
+        <v>91.7</v>
+      </c>
+      <c r="J20" s="90">
+        <v>14</v>
+      </c>
+      <c r="K20" s="90">
+        <v>99.2</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B22" s="11"/>
@@ -4918,19 +5265,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4978,28 +5325,28 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="38">
-        <v>1</v>
-      </c>
-      <c r="E5" s="38">
-        <v>1</v>
-      </c>
-      <c r="F5" s="38">
-        <v>1</v>
-      </c>
-      <c r="G5" s="39">
-        <v>1</v>
-      </c>
-      <c r="H5" s="39">
-        <v>1</v>
-      </c>
-      <c r="I5" s="39">
-        <v>1</v>
-      </c>
-      <c r="J5" s="38">
-        <v>1</v>
-      </c>
-      <c r="K5" s="38">
+      <c r="D5" s="36">
+        <v>1</v>
+      </c>
+      <c r="E5" s="36">
+        <v>1</v>
+      </c>
+      <c r="F5" s="36">
+        <v>1</v>
+      </c>
+      <c r="G5" s="37">
+        <v>1</v>
+      </c>
+      <c r="H5" s="37">
+        <v>1</v>
+      </c>
+      <c r="I5" s="37">
+        <v>1</v>
+      </c>
+      <c r="J5" s="36">
+        <v>1</v>
+      </c>
+      <c r="K5" s="36">
         <v>1</v>
       </c>
     </row>
@@ -5008,28 +5355,28 @@
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="38">
-        <v>2</v>
-      </c>
-      <c r="E6" s="38">
+      <c r="D6" s="36">
+        <v>2</v>
+      </c>
+      <c r="E6" s="36">
         <v>5</v>
       </c>
-      <c r="F6" s="38">
-        <v>2</v>
-      </c>
-      <c r="G6" s="39">
+      <c r="F6" s="36">
+        <v>2</v>
+      </c>
+      <c r="G6" s="37">
         <v>7</v>
       </c>
-      <c r="H6" s="39">
+      <c r="H6" s="37">
         <v>7</v>
       </c>
-      <c r="I6" s="39">
+      <c r="I6" s="37">
         <v>5</v>
       </c>
-      <c r="J6" s="38">
+      <c r="J6" s="36">
         <v>5</v>
       </c>
-      <c r="K6" s="39">
+      <c r="K6" s="37">
         <v>5</v>
       </c>
     </row>
@@ -5041,28 +5388,28 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="38">
-        <v>1</v>
-      </c>
-      <c r="E7" s="38">
-        <v>1</v>
-      </c>
-      <c r="F7" s="38">
-        <v>1</v>
-      </c>
-      <c r="G7" s="39">
-        <v>1</v>
-      </c>
-      <c r="H7" s="39">
-        <v>1</v>
-      </c>
-      <c r="I7" s="39">
-        <v>1</v>
-      </c>
-      <c r="J7" s="38">
-        <v>1</v>
-      </c>
-      <c r="K7" s="38">
+      <c r="D7" s="36">
+        <v>1</v>
+      </c>
+      <c r="E7" s="36">
+        <v>1</v>
+      </c>
+      <c r="F7" s="36">
+        <v>1</v>
+      </c>
+      <c r="G7" s="37">
+        <v>1</v>
+      </c>
+      <c r="H7" s="37">
+        <v>1</v>
+      </c>
+      <c r="I7" s="37">
+        <v>1</v>
+      </c>
+      <c r="J7" s="36">
+        <v>1</v>
+      </c>
+      <c r="K7" s="36">
         <v>1</v>
       </c>
     </row>
@@ -5072,28 +5419,28 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="38">
+      <c r="D8" s="36">
         <v>3</v>
       </c>
-      <c r="E8" s="38">
+      <c r="E8" s="36">
         <v>3</v>
       </c>
-      <c r="F8" s="38">
-        <v>2</v>
-      </c>
-      <c r="G8" s="39">
+      <c r="F8" s="36">
+        <v>2</v>
+      </c>
+      <c r="G8" s="37">
         <v>7</v>
       </c>
-      <c r="H8" s="38">
+      <c r="H8" s="36">
         <v>6</v>
       </c>
-      <c r="I8" s="39">
-        <v>2</v>
-      </c>
-      <c r="J8" s="38">
+      <c r="I8" s="37">
+        <v>2</v>
+      </c>
+      <c r="J8" s="36">
         <v>7</v>
       </c>
-      <c r="K8" s="39">
+      <c r="K8" s="37">
         <v>7</v>
       </c>
     </row>
@@ -5107,28 +5454,28 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="38">
-        <v>1</v>
-      </c>
-      <c r="E9" s="38">
-        <v>1</v>
-      </c>
-      <c r="F9" s="38">
-        <v>1</v>
-      </c>
-      <c r="G9" s="39">
-        <v>1</v>
-      </c>
-      <c r="H9" s="39">
-        <v>1</v>
-      </c>
-      <c r="I9" s="38">
-        <v>1</v>
-      </c>
-      <c r="J9" s="38">
-        <v>1</v>
-      </c>
-      <c r="K9" s="39">
+      <c r="D9" s="36">
+        <v>1</v>
+      </c>
+      <c r="E9" s="36">
+        <v>1</v>
+      </c>
+      <c r="F9" s="36">
+        <v>1</v>
+      </c>
+      <c r="G9" s="37">
+        <v>1</v>
+      </c>
+      <c r="H9" s="37">
+        <v>1</v>
+      </c>
+      <c r="I9" s="36">
+        <v>1</v>
+      </c>
+      <c r="J9" s="36">
+        <v>1</v>
+      </c>
+      <c r="K9" s="37">
         <v>1</v>
       </c>
     </row>
@@ -5137,28 +5484,28 @@
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="38">
+      <c r="D10" s="36">
         <v>3</v>
       </c>
-      <c r="E10" s="38">
+      <c r="E10" s="36">
         <v>3</v>
       </c>
-      <c r="F10" s="38">
-        <v>2</v>
-      </c>
-      <c r="G10" s="39">
+      <c r="F10" s="36">
+        <v>2</v>
+      </c>
+      <c r="G10" s="37">
         <v>5</v>
       </c>
-      <c r="H10" s="39">
+      <c r="H10" s="37">
         <v>7</v>
       </c>
-      <c r="I10" s="38">
+      <c r="I10" s="36">
         <v>5</v>
       </c>
-      <c r="J10" s="38">
+      <c r="J10" s="36">
         <v>3</v>
       </c>
-      <c r="K10" s="39">
+      <c r="K10" s="37">
         <v>2</v>
       </c>
     </row>
@@ -5170,28 +5517,28 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="39">
-        <v>1</v>
-      </c>
-      <c r="E11" s="38">
-        <v>1</v>
-      </c>
-      <c r="F11" s="38">
-        <v>1</v>
-      </c>
-      <c r="G11" s="39">
-        <v>1</v>
-      </c>
-      <c r="H11" s="39">
-        <v>1</v>
-      </c>
-      <c r="I11" s="38">
-        <v>1</v>
-      </c>
-      <c r="J11" s="38">
-        <v>1</v>
-      </c>
-      <c r="K11" s="39">
+      <c r="D11" s="37">
+        <v>1</v>
+      </c>
+      <c r="E11" s="36">
+        <v>1</v>
+      </c>
+      <c r="F11" s="36">
+        <v>1</v>
+      </c>
+      <c r="G11" s="37">
+        <v>1</v>
+      </c>
+      <c r="H11" s="37">
+        <v>1</v>
+      </c>
+      <c r="I11" s="36">
+        <v>1</v>
+      </c>
+      <c r="J11" s="36">
+        <v>1</v>
+      </c>
+      <c r="K11" s="37">
         <v>1</v>
       </c>
     </row>
@@ -5201,28 +5548,28 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="38">
-        <v>2</v>
-      </c>
-      <c r="E12" s="38">
+      <c r="D12" s="36">
+        <v>2</v>
+      </c>
+      <c r="E12" s="36">
         <v>5</v>
       </c>
-      <c r="F12" s="38">
-        <v>2</v>
-      </c>
-      <c r="G12" s="39">
+      <c r="F12" s="36">
+        <v>2</v>
+      </c>
+      <c r="G12" s="37">
         <v>4</v>
       </c>
-      <c r="H12" s="39">
+      <c r="H12" s="37">
         <v>7</v>
       </c>
-      <c r="I12" s="38">
+      <c r="I12" s="36">
         <v>9</v>
       </c>
-      <c r="J12" s="38">
-        <v>2</v>
-      </c>
-      <c r="K12" s="39">
+      <c r="J12" s="36">
+        <v>2</v>
+      </c>
+      <c r="K12" s="37">
         <v>5</v>
       </c>
     </row>
@@ -5236,28 +5583,28 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="39">
-        <v>1</v>
-      </c>
-      <c r="E13" s="38">
-        <v>1</v>
-      </c>
-      <c r="F13" s="38">
-        <v>1</v>
-      </c>
-      <c r="G13" s="39">
-        <v>1</v>
-      </c>
-      <c r="H13" s="38">
-        <v>1</v>
-      </c>
-      <c r="I13" s="39">
-        <v>1</v>
-      </c>
-      <c r="J13" s="38">
-        <v>1</v>
-      </c>
-      <c r="K13" s="39">
+      <c r="D13" s="37">
+        <v>1</v>
+      </c>
+      <c r="E13" s="36">
+        <v>1</v>
+      </c>
+      <c r="F13" s="36">
+        <v>1</v>
+      </c>
+      <c r="G13" s="37">
+        <v>1</v>
+      </c>
+      <c r="H13" s="36">
+        <v>1</v>
+      </c>
+      <c r="I13" s="37">
+        <v>1</v>
+      </c>
+      <c r="J13" s="36">
+        <v>1</v>
+      </c>
+      <c r="K13" s="37">
         <v>1</v>
       </c>
     </row>
@@ -5266,28 +5613,28 @@
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="38">
-        <v>2</v>
-      </c>
-      <c r="E14" s="38">
+      <c r="D14" s="36">
+        <v>2</v>
+      </c>
+      <c r="E14" s="36">
         <v>5</v>
       </c>
-      <c r="F14" s="38">
-        <v>2</v>
-      </c>
-      <c r="G14" s="41">
+      <c r="F14" s="36">
+        <v>2</v>
+      </c>
+      <c r="G14" s="39">
         <v>7</v>
       </c>
-      <c r="H14" s="38">
+      <c r="H14" s="36">
         <v>3</v>
       </c>
-      <c r="I14" s="39">
+      <c r="I14" s="37">
         <v>4</v>
       </c>
-      <c r="J14" s="38">
-        <v>2</v>
-      </c>
-      <c r="K14" s="39">
+      <c r="J14" s="36">
+        <v>2</v>
+      </c>
+      <c r="K14" s="37">
         <v>5</v>
       </c>
     </row>
@@ -5299,28 +5646,28 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="38">
-        <v>1</v>
-      </c>
-      <c r="E15" s="38">
-        <v>1</v>
-      </c>
-      <c r="F15" s="38">
-        <v>1</v>
-      </c>
-      <c r="G15" s="38">
-        <v>1</v>
-      </c>
-      <c r="H15" s="38">
-        <v>1</v>
-      </c>
-      <c r="I15" s="38">
-        <v>1</v>
-      </c>
-      <c r="J15" s="38">
-        <v>1</v>
-      </c>
-      <c r="K15" s="38">
+      <c r="D15" s="36">
+        <v>1</v>
+      </c>
+      <c r="E15" s="36">
+        <v>1</v>
+      </c>
+      <c r="F15" s="36">
+        <v>1</v>
+      </c>
+      <c r="G15" s="36">
+        <v>1</v>
+      </c>
+      <c r="H15" s="36">
+        <v>1</v>
+      </c>
+      <c r="I15" s="36">
+        <v>1</v>
+      </c>
+      <c r="J15" s="36">
+        <v>1</v>
+      </c>
+      <c r="K15" s="36">
         <v>1</v>
       </c>
     </row>
@@ -5330,28 +5677,28 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="38">
+      <c r="D16" s="36">
         <v>6</v>
       </c>
-      <c r="E16" s="38">
+      <c r="E16" s="36">
         <v>5</v>
       </c>
-      <c r="F16" s="38">
-        <v>2</v>
-      </c>
-      <c r="G16" s="38">
+      <c r="F16" s="36">
+        <v>2</v>
+      </c>
+      <c r="G16" s="36">
         <v>5</v>
       </c>
-      <c r="H16" s="38">
+      <c r="H16" s="36">
         <v>4</v>
       </c>
-      <c r="I16" s="38">
+      <c r="I16" s="36">
         <v>8</v>
       </c>
-      <c r="J16" s="38">
+      <c r="J16" s="36">
         <v>4</v>
       </c>
-      <c r="K16" s="38">
+      <c r="K16" s="36">
         <v>4</v>
       </c>
     </row>
@@ -5365,28 +5712,60 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="38"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="39"/>
+      <c r="D17" s="90">
+        <v>1</v>
+      </c>
+      <c r="E17" s="90">
+        <v>1</v>
+      </c>
+      <c r="F17" s="90">
+        <v>1</v>
+      </c>
+      <c r="G17" s="90">
+        <v>1</v>
+      </c>
+      <c r="H17" s="90">
+        <v>1</v>
+      </c>
+      <c r="I17" s="90">
+        <v>1</v>
+      </c>
+      <c r="J17" s="90">
+        <v>1</v>
+      </c>
+      <c r="K17" s="90">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="39"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="39"/>
+      <c r="D18" s="90">
+        <v>3</v>
+      </c>
+      <c r="E18" s="90">
+        <v>9</v>
+      </c>
+      <c r="F18" s="90">
+        <v>2</v>
+      </c>
+      <c r="G18" s="90">
+        <v>3</v>
+      </c>
+      <c r="H18" s="90">
+        <v>7</v>
+      </c>
+      <c r="I18" s="90">
+        <v>4</v>
+      </c>
+      <c r="J18" s="90">
+        <v>3</v>
+      </c>
+      <c r="K18" s="90">
+        <v>9</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
@@ -5396,14 +5775,30 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
+      <c r="D19" s="90">
+        <v>1</v>
+      </c>
+      <c r="E19" s="90">
+        <v>1</v>
+      </c>
+      <c r="F19" s="90">
+        <v>1</v>
+      </c>
+      <c r="G19" s="90">
+        <v>1</v>
+      </c>
+      <c r="H19" s="90">
+        <v>1</v>
+      </c>
+      <c r="I19" s="90">
+        <v>1</v>
+      </c>
+      <c r="J19" s="90">
+        <v>1</v>
+      </c>
+      <c r="K19" s="90">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
@@ -5411,14 +5806,30 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="39"/>
+      <c r="D20" s="90">
+        <v>2</v>
+      </c>
+      <c r="E20" s="90">
+        <v>5</v>
+      </c>
+      <c r="F20" s="90">
+        <v>2</v>
+      </c>
+      <c r="G20" s="90">
+        <v>6</v>
+      </c>
+      <c r="H20" s="90">
+        <v>9</v>
+      </c>
+      <c r="I20" s="90">
+        <v>3</v>
+      </c>
+      <c r="J20" s="90">
+        <v>2</v>
+      </c>
+      <c r="K20" s="90">
+        <v>6</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B22" s="11"/>
@@ -5624,19 +6035,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5684,28 +6095,28 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="38">
-        <v>1</v>
-      </c>
-      <c r="E5" s="38">
-        <v>1</v>
-      </c>
-      <c r="F5" s="38">
-        <v>1</v>
-      </c>
-      <c r="G5" s="39">
-        <v>1</v>
-      </c>
-      <c r="H5" s="39">
-        <v>1</v>
-      </c>
-      <c r="I5" s="39">
-        <v>1</v>
-      </c>
-      <c r="J5" s="38">
-        <v>1</v>
-      </c>
-      <c r="K5" s="38">
+      <c r="D5" s="36">
+        <v>1</v>
+      </c>
+      <c r="E5" s="36">
+        <v>1</v>
+      </c>
+      <c r="F5" s="36">
+        <v>1</v>
+      </c>
+      <c r="G5" s="37">
+        <v>1</v>
+      </c>
+      <c r="H5" s="37">
+        <v>1</v>
+      </c>
+      <c r="I5" s="37">
+        <v>1</v>
+      </c>
+      <c r="J5" s="36">
+        <v>1</v>
+      </c>
+      <c r="K5" s="36">
         <v>1</v>
       </c>
     </row>
@@ -5714,28 +6125,28 @@
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="38">
+      <c r="D6" s="36">
         <v>4.0999999999999996</v>
       </c>
-      <c r="E6" s="38">
+      <c r="E6" s="36">
         <v>3.9</v>
       </c>
-      <c r="F6" s="38">
+      <c r="F6" s="36">
         <v>3</v>
       </c>
-      <c r="G6" s="39">
+      <c r="G6" s="37">
         <v>5.4</v>
       </c>
-      <c r="H6" s="39">
+      <c r="H6" s="37">
         <v>4.8</v>
       </c>
-      <c r="I6" s="39">
+      <c r="I6" s="37">
         <v>3.8</v>
       </c>
-      <c r="J6" s="38">
+      <c r="J6" s="36">
         <v>4.0999999999999996</v>
       </c>
-      <c r="K6" s="39">
+      <c r="K6" s="37">
         <v>4.5</v>
       </c>
     </row>
@@ -5747,28 +6158,28 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="38">
-        <v>1</v>
-      </c>
-      <c r="E7" s="38">
-        <v>1</v>
-      </c>
-      <c r="F7" s="38">
-        <v>1</v>
-      </c>
-      <c r="G7" s="39">
-        <v>1</v>
-      </c>
-      <c r="H7" s="39">
-        <v>1</v>
-      </c>
-      <c r="I7" s="39">
-        <v>1</v>
-      </c>
-      <c r="J7" s="38">
-        <v>1</v>
-      </c>
-      <c r="K7" s="38">
+      <c r="D7" s="36">
+        <v>1</v>
+      </c>
+      <c r="E7" s="36">
+        <v>1</v>
+      </c>
+      <c r="F7" s="36">
+        <v>1</v>
+      </c>
+      <c r="G7" s="37">
+        <v>1</v>
+      </c>
+      <c r="H7" s="37">
+        <v>1</v>
+      </c>
+      <c r="I7" s="37">
+        <v>1</v>
+      </c>
+      <c r="J7" s="36">
+        <v>1</v>
+      </c>
+      <c r="K7" s="36">
         <v>1</v>
       </c>
     </row>
@@ -5778,28 +6189,28 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="38">
+      <c r="D8" s="36">
         <v>3.6</v>
       </c>
-      <c r="E8" s="38">
+      <c r="E8" s="36">
         <v>4.0999999999999996</v>
       </c>
-      <c r="F8" s="38">
+      <c r="F8" s="36">
         <v>4.5</v>
       </c>
-      <c r="G8" s="39">
+      <c r="G8" s="37">
         <v>3.8</v>
       </c>
-      <c r="H8" s="38">
+      <c r="H8" s="36">
         <v>4.0999999999999996</v>
       </c>
-      <c r="I8" s="39">
+      <c r="I8" s="37">
         <v>3.1</v>
       </c>
-      <c r="J8" s="38">
+      <c r="J8" s="36">
         <v>3.8</v>
       </c>
-      <c r="K8" s="39">
+      <c r="K8" s="37">
         <v>4.2</v>
       </c>
     </row>
@@ -5813,28 +6224,28 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="38">
-        <v>1</v>
-      </c>
-      <c r="E9" s="38">
-        <v>1</v>
-      </c>
-      <c r="F9" s="38">
-        <v>1</v>
-      </c>
-      <c r="G9" s="39">
-        <v>1</v>
-      </c>
-      <c r="H9" s="39">
-        <v>1</v>
-      </c>
-      <c r="I9" s="38">
-        <v>1</v>
-      </c>
-      <c r="J9" s="38">
-        <v>1</v>
-      </c>
-      <c r="K9" s="39">
+      <c r="D9" s="36">
+        <v>1</v>
+      </c>
+      <c r="E9" s="36">
+        <v>1</v>
+      </c>
+      <c r="F9" s="36">
+        <v>1</v>
+      </c>
+      <c r="G9" s="37">
+        <v>1</v>
+      </c>
+      <c r="H9" s="37">
+        <v>1</v>
+      </c>
+      <c r="I9" s="36">
+        <v>1</v>
+      </c>
+      <c r="J9" s="36">
+        <v>1</v>
+      </c>
+      <c r="K9" s="37">
         <v>1</v>
       </c>
     </row>
@@ -5843,28 +6254,28 @@
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="38">
+      <c r="D10" s="36">
         <v>4.3</v>
       </c>
-      <c r="E10" s="38">
+      <c r="E10" s="36">
         <v>3.6</v>
       </c>
-      <c r="F10" s="38">
+      <c r="F10" s="36">
         <v>3.4</v>
       </c>
-      <c r="G10" s="39">
+      <c r="G10" s="37">
         <v>4.9000000000000004</v>
       </c>
-      <c r="H10" s="39">
+      <c r="H10" s="37">
         <v>5</v>
       </c>
-      <c r="I10" s="38">
+      <c r="I10" s="36">
         <v>6.4</v>
       </c>
-      <c r="J10" s="38">
+      <c r="J10" s="36">
         <v>3.2</v>
       </c>
-      <c r="K10" s="39">
+      <c r="K10" s="37">
         <v>3.8</v>
       </c>
     </row>
@@ -5876,28 +6287,28 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="39">
-        <v>1</v>
-      </c>
-      <c r="E11" s="38">
-        <v>1</v>
-      </c>
-      <c r="F11" s="38">
-        <v>1</v>
-      </c>
-      <c r="G11" s="39">
-        <v>1</v>
-      </c>
-      <c r="H11" s="39">
-        <v>1</v>
-      </c>
-      <c r="I11" s="38">
-        <v>1</v>
-      </c>
-      <c r="J11" s="38">
-        <v>1</v>
-      </c>
-      <c r="K11" s="39">
+      <c r="D11" s="37">
+        <v>1</v>
+      </c>
+      <c r="E11" s="36">
+        <v>1</v>
+      </c>
+      <c r="F11" s="36">
+        <v>1</v>
+      </c>
+      <c r="G11" s="37">
+        <v>1</v>
+      </c>
+      <c r="H11" s="37">
+        <v>1</v>
+      </c>
+      <c r="I11" s="36">
+        <v>1</v>
+      </c>
+      <c r="J11" s="36">
+        <v>1</v>
+      </c>
+      <c r="K11" s="37">
         <v>1</v>
       </c>
     </row>
@@ -5907,28 +6318,28 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="38">
+      <c r="D12" s="36">
         <v>3.6</v>
       </c>
-      <c r="E12" s="38">
+      <c r="E12" s="36">
         <v>3.8</v>
       </c>
-      <c r="F12" s="38">
+      <c r="F12" s="36">
         <v>3.6</v>
       </c>
-      <c r="G12" s="39">
+      <c r="G12" s="37">
         <v>3.2</v>
       </c>
-      <c r="H12" s="39">
+      <c r="H12" s="37">
         <v>5.3</v>
       </c>
-      <c r="I12" s="38">
+      <c r="I12" s="36">
         <v>5.9</v>
       </c>
-      <c r="J12" s="38">
+      <c r="J12" s="36">
         <v>3.5</v>
       </c>
-      <c r="K12" s="39">
+      <c r="K12" s="37">
         <v>4.2</v>
       </c>
     </row>
@@ -5942,28 +6353,28 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="39">
-        <v>1</v>
-      </c>
-      <c r="E13" s="38">
-        <v>1</v>
-      </c>
-      <c r="F13" s="38">
-        <v>1</v>
-      </c>
-      <c r="G13" s="39">
-        <v>1</v>
-      </c>
-      <c r="H13" s="38">
-        <v>1</v>
-      </c>
-      <c r="I13" s="39">
-        <v>1</v>
-      </c>
-      <c r="J13" s="38">
-        <v>1</v>
-      </c>
-      <c r="K13" s="39">
+      <c r="D13" s="37">
+        <v>1</v>
+      </c>
+      <c r="E13" s="36">
+        <v>1</v>
+      </c>
+      <c r="F13" s="36">
+        <v>1</v>
+      </c>
+      <c r="G13" s="37">
+        <v>1</v>
+      </c>
+      <c r="H13" s="36">
+        <v>1</v>
+      </c>
+      <c r="I13" s="37">
+        <v>1</v>
+      </c>
+      <c r="J13" s="36">
+        <v>1</v>
+      </c>
+      <c r="K13" s="37">
         <v>1</v>
       </c>
     </row>
@@ -5972,28 +6383,28 @@
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="38">
+      <c r="D14" s="36">
         <v>3.2</v>
       </c>
-      <c r="E14" s="38">
+      <c r="E14" s="36">
         <v>4.9000000000000004</v>
       </c>
-      <c r="F14" s="38">
+      <c r="F14" s="36">
         <v>3.4</v>
       </c>
-      <c r="G14" s="41">
+      <c r="G14" s="39">
         <v>4.5999999999999996</v>
       </c>
-      <c r="H14" s="38">
+      <c r="H14" s="36">
         <v>3.9</v>
       </c>
-      <c r="I14" s="39">
+      <c r="I14" s="37">
         <v>7.6</v>
       </c>
-      <c r="J14" s="38">
+      <c r="J14" s="36">
         <v>3.5</v>
       </c>
-      <c r="K14" s="39">
+      <c r="K14" s="37">
         <v>5.2</v>
       </c>
     </row>
@@ -6005,28 +6416,28 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="38">
-        <v>1</v>
-      </c>
-      <c r="E15" s="38">
-        <v>1</v>
-      </c>
-      <c r="F15" s="38">
-        <v>1</v>
-      </c>
-      <c r="G15" s="38">
-        <v>1</v>
-      </c>
-      <c r="H15" s="38">
-        <v>1</v>
-      </c>
-      <c r="I15" s="38">
-        <v>1</v>
-      </c>
-      <c r="J15" s="38">
-        <v>1</v>
-      </c>
-      <c r="K15" s="38">
+      <c r="D15" s="36">
+        <v>1</v>
+      </c>
+      <c r="E15" s="36">
+        <v>1</v>
+      </c>
+      <c r="F15" s="36">
+        <v>1</v>
+      </c>
+      <c r="G15" s="36">
+        <v>1</v>
+      </c>
+      <c r="H15" s="36">
+        <v>1</v>
+      </c>
+      <c r="I15" s="36">
+        <v>1</v>
+      </c>
+      <c r="J15" s="36">
+        <v>1</v>
+      </c>
+      <c r="K15" s="36">
         <v>1</v>
       </c>
     </row>
@@ -6036,28 +6447,28 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="38">
+      <c r="D16" s="36">
         <v>4.3</v>
       </c>
-      <c r="E16" s="38">
+      <c r="E16" s="36">
         <v>4.8</v>
       </c>
-      <c r="F16" s="38">
+      <c r="F16" s="36">
         <v>3.6</v>
       </c>
-      <c r="G16" s="38">
+      <c r="G16" s="36">
         <v>5.3</v>
       </c>
-      <c r="H16" s="38">
+      <c r="H16" s="36">
         <v>4.9000000000000004</v>
       </c>
-      <c r="I16" s="38">
+      <c r="I16" s="36">
         <v>6.5</v>
       </c>
-      <c r="J16" s="38">
+      <c r="J16" s="36">
         <v>3.6</v>
       </c>
-      <c r="K16" s="38">
+      <c r="K16" s="36">
         <v>3.9</v>
       </c>
     </row>
@@ -6071,28 +6482,60 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="38"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="39"/>
+      <c r="D17" s="90">
+        <v>1</v>
+      </c>
+      <c r="E17" s="90">
+        <v>1</v>
+      </c>
+      <c r="F17" s="90">
+        <v>1</v>
+      </c>
+      <c r="G17" s="90">
+        <v>1</v>
+      </c>
+      <c r="H17" s="90">
+        <v>1</v>
+      </c>
+      <c r="I17" s="90">
+        <v>1</v>
+      </c>
+      <c r="J17" s="90">
+        <v>1</v>
+      </c>
+      <c r="K17" s="90">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="39"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="39"/>
+      <c r="D18" s="90">
+        <v>3.1</v>
+      </c>
+      <c r="E18" s="90">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F18" s="90">
+        <v>3.1</v>
+      </c>
+      <c r="G18" s="90">
+        <v>4.5</v>
+      </c>
+      <c r="H18" s="90">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I18" s="90">
+        <v>4.2</v>
+      </c>
+      <c r="J18" s="90">
+        <v>4</v>
+      </c>
+      <c r="K18" s="90">
+        <v>4.0999999999999996</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
@@ -6102,14 +6545,30 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
+      <c r="D19" s="90">
+        <v>1</v>
+      </c>
+      <c r="E19" s="90">
+        <v>1</v>
+      </c>
+      <c r="F19" s="90">
+        <v>1</v>
+      </c>
+      <c r="G19" s="90">
+        <v>1</v>
+      </c>
+      <c r="H19" s="90">
+        <v>1</v>
+      </c>
+      <c r="I19" s="90">
+        <v>1</v>
+      </c>
+      <c r="J19" s="90">
+        <v>1</v>
+      </c>
+      <c r="K19" s="90">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
@@ -6117,14 +6576,30 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="39"/>
+      <c r="D20" s="90">
+        <v>3.6</v>
+      </c>
+      <c r="E20" s="90">
+        <v>4.3</v>
+      </c>
+      <c r="F20" s="90">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G20" s="90">
+        <v>3.7</v>
+      </c>
+      <c r="H20" s="90">
+        <v>6.5</v>
+      </c>
+      <c r="I20" s="90">
+        <v>4.3</v>
+      </c>
+      <c r="J20" s="90">
+        <v>3.7</v>
+      </c>
+      <c r="K20" s="90">
+        <v>3.7</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B22" s="11"/>
@@ -6322,66 +6797,67 @@
     <col min="3" max="3" width="12.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" customWidth="1"/>
+    <col min="7" max="7" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8" customWidth="1"/>
     <col min="15" max="16" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="77" t="s">
+      <c r="F3" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="36" t="s">
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="36" t="s">
+      <c r="J3" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="78" t="s">
+      <c r="K3" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="79"/>
-      <c r="M3" s="78" t="s">
+      <c r="L3" s="78"/>
+      <c r="M3" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="79"/>
-      <c r="O3" s="78" t="s">
+      <c r="N3" s="78"/>
+      <c r="O3" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="80"/>
+      <c r="P3" s="79"/>
     </row>
     <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -6390,46 +6866,46 @@
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="48" t="s">
+      <c r="D4" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="49" t="s">
+      <c r="E4" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="49" t="s">
+      <c r="F4" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="49" t="s">
+      <c r="G4" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="49" t="s">
+      <c r="H4" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="49" t="s">
+      <c r="I4" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="49" t="s">
+      <c r="J4" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="49" t="s">
+      <c r="K4" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="49" t="s">
+      <c r="L4" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="49" t="s">
+      <c r="M4" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="N4" s="49" t="s">
+      <c r="N4" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="O4" s="49" t="s">
+      <c r="O4" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="P4" s="50" t="s">
+      <c r="P4" s="48" t="s">
         <v>23</v>
       </c>
     </row>
@@ -6440,88 +6916,88 @@
       <c r="B5" s="3">
         <v>1</v>
       </c>
-      <c r="C5" s="45">
-        <v>1</v>
-      </c>
-      <c r="D5" s="74">
+      <c r="C5" s="43">
+        <v>1</v>
+      </c>
+      <c r="D5" s="70">
         <v>6.25E-2</v>
       </c>
-      <c r="E5" s="61">
+      <c r="E5" s="59">
         <v>0.5</v>
       </c>
-      <c r="F5" s="62">
-        <v>1</v>
-      </c>
-      <c r="G5" s="62">
-        <v>1</v>
-      </c>
-      <c r="H5" s="62">
+      <c r="F5" s="59">
+        <v>1</v>
+      </c>
+      <c r="G5" s="59">
+        <v>1</v>
+      </c>
+      <c r="H5" s="59">
         <v>3</v>
       </c>
-      <c r="I5" s="62">
+      <c r="I5" s="60">
         <v>128</v>
       </c>
-      <c r="J5" s="62">
-        <v>2</v>
-      </c>
-      <c r="K5" s="62">
+      <c r="J5" s="59">
+        <v>2</v>
+      </c>
+      <c r="K5" s="59">
         <v>3</v>
       </c>
-      <c r="L5" s="62">
+      <c r="L5" s="59">
         <v>4</v>
       </c>
-      <c r="M5" s="57">
+      <c r="M5" s="55">
         <v>3.125E-2</v>
       </c>
-      <c r="N5" s="60">
+      <c r="N5" s="58">
         <v>0.05</v>
       </c>
-      <c r="O5" s="62">
-        <v>2</v>
-      </c>
-      <c r="P5" s="63">
+      <c r="O5" s="60">
+        <v>2</v>
+      </c>
+      <c r="P5" s="61">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="65">
+      <c r="D6" s="71">
         <v>4</v>
       </c>
-      <c r="E6" s="56">
+      <c r="E6" s="54">
         <v>3.90625E-3</v>
       </c>
-      <c r="F6" s="53">
-        <v>2</v>
-      </c>
-      <c r="G6" s="54">
+      <c r="F6" s="36">
+        <v>2</v>
+      </c>
+      <c r="G6" s="52">
         <v>0.25</v>
       </c>
-      <c r="H6" s="53">
+      <c r="H6" s="36">
         <v>3</v>
       </c>
-      <c r="I6" s="54">
+      <c r="I6" s="52">
         <v>0.25</v>
       </c>
-      <c r="J6" s="55">
+      <c r="J6" s="53">
         <v>6.25E-2</v>
       </c>
-      <c r="K6" s="38">
+      <c r="K6" s="36">
         <v>2.6</v>
       </c>
-      <c r="L6" s="55">
+      <c r="L6" s="53">
         <v>6.25E-2</v>
       </c>
-      <c r="M6" s="56">
+      <c r="M6" s="54">
         <v>3.90625E-3</v>
       </c>
       <c r="N6" s="15">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="O6" s="38">
+      <c r="O6" s="36">
         <v>0.5</v>
       </c>
       <c r="P6" s="26">
@@ -6533,92 +7009,92 @@
       <c r="B7" s="1">
         <v>2</v>
       </c>
-      <c r="C7" s="46">
-        <v>1</v>
-      </c>
-      <c r="D7" s="65">
+      <c r="C7" s="44">
+        <v>1</v>
+      </c>
+      <c r="D7" s="71">
         <v>8</v>
       </c>
-      <c r="E7" s="38">
+      <c r="E7" s="36">
         <v>0.5</v>
       </c>
-      <c r="F7" s="38">
+      <c r="F7" s="36">
         <v>0.5</v>
       </c>
-      <c r="G7" s="53">
+      <c r="G7" s="36">
         <v>8</v>
       </c>
-      <c r="H7" s="53">
+      <c r="H7" s="36">
         <v>3</v>
       </c>
-      <c r="I7" s="54">
+      <c r="I7" s="52">
         <v>0.25</v>
       </c>
-      <c r="J7" s="56">
+      <c r="J7" s="54">
         <v>3.125E-2</v>
       </c>
-      <c r="K7" s="38">
+      <c r="K7" s="36">
         <v>0.4</v>
       </c>
-      <c r="L7" s="53">
+      <c r="L7" s="51">
         <v>16</v>
       </c>
-      <c r="M7" s="56">
+      <c r="M7" s="54">
         <v>3.90625E-3</v>
       </c>
       <c r="N7" s="15">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="O7" s="56">
+      <c r="O7" s="54">
         <v>7.8125E-3</v>
       </c>
-      <c r="P7" s="68">
+      <c r="P7" s="65">
         <v>0.25</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="65">
-        <v>2</v>
-      </c>
-      <c r="E8" s="56">
+      <c r="D8" s="71">
+        <v>2</v>
+      </c>
+      <c r="E8" s="54">
         <v>1.953125E-3</v>
       </c>
-      <c r="F8" s="53">
-        <v>2</v>
-      </c>
-      <c r="G8" s="53">
+      <c r="F8" s="36">
+        <v>2</v>
+      </c>
+      <c r="G8" s="36">
         <v>4</v>
       </c>
-      <c r="H8" s="53">
+      <c r="H8" s="36">
         <v>2</v>
       </c>
       <c r="I8" s="15">
         <v>0.125</v>
       </c>
-      <c r="J8" s="56">
+      <c r="J8" s="54">
         <v>3.125E-2</v>
       </c>
-      <c r="K8" s="53">
-        <v>2</v>
-      </c>
-      <c r="L8" s="53">
+      <c r="K8" s="36">
+        <v>2</v>
+      </c>
+      <c r="L8" s="51">
         <v>32</v>
       </c>
-      <c r="M8" s="56">
+      <c r="M8" s="54">
         <v>1.5625E-2</v>
       </c>
       <c r="N8" s="15">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="O8" s="38">
+      <c r="O8" s="36">
         <v>0.5</v>
       </c>
-      <c r="P8" s="68">
+      <c r="P8" s="65">
         <v>0.25</v>
       </c>
     </row>
@@ -6629,91 +7105,91 @@
       <c r="B9" s="3">
         <v>1</v>
       </c>
-      <c r="C9" s="45">
-        <v>1</v>
-      </c>
-      <c r="D9" s="64">
+      <c r="C9" s="43">
+        <v>1</v>
+      </c>
+      <c r="D9" s="62">
         <v>6.25E-2</v>
       </c>
-      <c r="E9" s="38">
+      <c r="E9" s="36">
         <v>0.5</v>
       </c>
-      <c r="F9" s="53">
+      <c r="F9" s="36">
         <v>4</v>
       </c>
-      <c r="G9" s="55">
+      <c r="G9" s="53">
         <v>6.25E-2</v>
       </c>
-      <c r="H9" s="53">
-        <v>1</v>
-      </c>
-      <c r="I9" s="53">
+      <c r="H9" s="36">
+        <v>1</v>
+      </c>
+      <c r="I9" s="36">
         <v>8</v>
       </c>
-      <c r="J9" s="56">
+      <c r="J9" s="54">
         <v>3.125E-2</v>
       </c>
-      <c r="K9" s="38">
+      <c r="K9" s="36">
         <v>2.4</v>
       </c>
-      <c r="L9" s="53">
+      <c r="L9" s="51">
         <v>1024</v>
       </c>
-      <c r="M9" s="56">
+      <c r="M9" s="54">
         <v>7.8125E-3</v>
       </c>
       <c r="N9" s="15">
         <v>1E-3</v>
       </c>
-      <c r="O9" s="56">
+      <c r="O9" s="54">
         <v>3.90625E-3</v>
       </c>
-      <c r="P9" s="67">
+      <c r="P9" s="64">
         <v>6.25E-2</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
-      <c r="C10" s="46" t="s">
+      <c r="C10" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="64">
+      <c r="D10" s="62">
         <v>6.25E-2</v>
       </c>
-      <c r="E10" s="55">
+      <c r="E10" s="53">
         <v>6.25E-2</v>
       </c>
-      <c r="F10" s="53">
-        <v>2</v>
-      </c>
-      <c r="G10" s="53">
-        <v>2</v>
-      </c>
-      <c r="H10" s="38">
+      <c r="F10" s="36">
+        <v>2</v>
+      </c>
+      <c r="G10" s="36">
+        <v>2</v>
+      </c>
+      <c r="H10" s="36">
         <v>0.6</v>
       </c>
-      <c r="I10" s="55">
+      <c r="I10" s="53">
         <v>6.25E-2</v>
       </c>
-      <c r="J10" s="56">
+      <c r="J10" s="54">
         <v>3.90625E-3</v>
       </c>
-      <c r="K10" s="38">
+      <c r="K10" s="36">
         <v>2.8</v>
       </c>
-      <c r="L10" s="53">
-        <v>1</v>
-      </c>
-      <c r="M10" s="56">
+      <c r="L10" s="36">
+        <v>1</v>
+      </c>
+      <c r="M10" s="54">
         <v>3.125E-2</v>
       </c>
-      <c r="N10" s="38">
+      <c r="N10" s="36">
         <v>0.1</v>
       </c>
-      <c r="O10" s="53">
+      <c r="O10" s="36">
         <v>8</v>
       </c>
-      <c r="P10" s="68">
+      <c r="P10" s="65">
         <v>0.25</v>
       </c>
     </row>
@@ -6722,59 +7198,59 @@
       <c r="B11" s="1">
         <v>2</v>
       </c>
-      <c r="C11" s="46">
-        <v>1</v>
-      </c>
-      <c r="D11" s="65">
-        <v>1</v>
-      </c>
-      <c r="E11" s="38">
+      <c r="C11" s="44">
+        <v>1</v>
+      </c>
+      <c r="D11" s="71">
+        <v>1</v>
+      </c>
+      <c r="E11" s="36">
         <v>0.5</v>
       </c>
-      <c r="F11" s="55">
+      <c r="F11" s="53">
         <v>6.25E-2</v>
       </c>
       <c r="G11" s="15">
         <v>0.125</v>
       </c>
-      <c r="H11" s="38">
+      <c r="H11" s="36">
         <v>0.6</v>
       </c>
-      <c r="I11" s="53">
+      <c r="I11" s="51">
         <v>32</v>
       </c>
-      <c r="J11" s="53">
-        <v>2</v>
-      </c>
-      <c r="K11" s="38">
+      <c r="J11" s="36">
+        <v>2</v>
+      </c>
+      <c r="K11" s="36">
         <v>2.6</v>
       </c>
-      <c r="L11" s="53">
+      <c r="L11" s="51">
         <v>256</v>
       </c>
-      <c r="M11" s="55">
+      <c r="M11" s="53">
         <v>6.25E-2</v>
       </c>
       <c r="N11" s="15">
         <v>1E-3</v>
       </c>
-      <c r="O11" s="56">
+      <c r="O11" s="54">
         <v>3.90625E-3</v>
       </c>
-      <c r="P11" s="58">
+      <c r="P11" s="56">
         <v>3.125E-2</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
-      <c r="C12" s="47" t="s">
+      <c r="C12" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="65">
+      <c r="D12" s="71">
         <v>4</v>
       </c>
-      <c r="E12" s="55">
+      <c r="E12" s="53">
         <v>6.25E-2</v>
       </c>
       <c r="F12" s="15">
@@ -6783,31 +7259,31 @@
       <c r="G12" s="15">
         <v>0.125</v>
       </c>
-      <c r="H12" s="38">
+      <c r="H12" s="36">
         <v>0.8</v>
       </c>
-      <c r="I12" s="55">
+      <c r="I12" s="53">
         <v>6.25E-2</v>
       </c>
-      <c r="J12" s="56">
+      <c r="J12" s="54">
         <v>3.90625E-3</v>
       </c>
-      <c r="K12" s="53">
-        <v>1</v>
-      </c>
-      <c r="L12" s="53">
+      <c r="K12" s="51">
+        <v>1</v>
+      </c>
+      <c r="L12" s="51">
         <v>256</v>
       </c>
-      <c r="M12" s="56">
+      <c r="M12" s="54">
         <v>3.90625E-3</v>
       </c>
       <c r="N12" s="15">
         <v>0.01</v>
       </c>
-      <c r="O12" s="55">
+      <c r="O12" s="53">
         <v>6.25E-2</v>
       </c>
-      <c r="P12" s="67">
+      <c r="P12" s="64">
         <v>6.25E-2</v>
       </c>
     </row>
@@ -6818,34 +7294,34 @@
       <c r="B13" s="3">
         <v>1</v>
       </c>
-      <c r="C13" s="45">
-        <v>1</v>
-      </c>
-      <c r="D13" s="65">
-        <v>2</v>
-      </c>
-      <c r="E13" s="53">
-        <v>1</v>
-      </c>
-      <c r="F13" s="55">
+      <c r="C13" s="43">
+        <v>1</v>
+      </c>
+      <c r="D13" s="71">
+        <v>2</v>
+      </c>
+      <c r="E13" s="36">
+        <v>1</v>
+      </c>
+      <c r="F13" s="53">
         <v>6.25E-2</v>
       </c>
-      <c r="G13" s="54">
+      <c r="G13" s="52">
         <v>0.25</v>
       </c>
-      <c r="H13" s="38">
+      <c r="H13" s="36">
         <v>2.2000000000000002</v>
       </c>
-      <c r="I13" s="53">
+      <c r="I13" s="36">
         <v>4</v>
       </c>
-      <c r="J13" s="56">
+      <c r="J13" s="54">
         <v>9.765625E-4</v>
       </c>
-      <c r="K13" s="38">
+      <c r="K13" s="36">
         <v>2.2000000000000002</v>
       </c>
-      <c r="L13" s="53">
+      <c r="L13" s="36">
         <v>4</v>
       </c>
       <c r="M13" s="15">
@@ -6854,52 +7330,52 @@
       <c r="N13" s="15">
         <v>1E-3</v>
       </c>
-      <c r="O13" s="56">
+      <c r="O13" s="54">
         <v>3.125E-2</v>
       </c>
-      <c r="P13" s="69">
+      <c r="P13" s="72">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
-      <c r="C14" s="46" t="s">
+      <c r="C14" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="65">
+      <c r="D14" s="63">
         <v>8</v>
       </c>
-      <c r="E14" s="56">
+      <c r="E14" s="54">
         <v>1.5625E-2</v>
       </c>
-      <c r="F14" s="53">
+      <c r="F14" s="51">
         <v>4</v>
       </c>
       <c r="G14" s="15">
         <v>0.125</v>
       </c>
-      <c r="H14" s="53">
-        <v>2</v>
-      </c>
-      <c r="I14" s="56">
+      <c r="H14" s="51">
+        <v>2</v>
+      </c>
+      <c r="I14" s="54">
         <v>1.953125E-3</v>
       </c>
-      <c r="J14" s="56">
+      <c r="J14" s="54">
         <v>3.90625E-3</v>
       </c>
-      <c r="K14" s="38">
+      <c r="K14" s="36">
         <v>2.6</v>
       </c>
-      <c r="L14" s="56">
+      <c r="L14" s="54">
         <v>1.5625E-2</v>
       </c>
-      <c r="M14" s="55">
+      <c r="M14" s="53">
         <v>6.25E-2</v>
       </c>
-      <c r="N14" s="54">
+      <c r="N14" s="52">
         <v>0.05</v>
       </c>
-      <c r="O14" s="53">
+      <c r="O14" s="36">
         <v>2</v>
       </c>
       <c r="P14" s="26">
@@ -6911,92 +7387,92 @@
       <c r="B15" s="1">
         <v>2</v>
       </c>
-      <c r="C15" s="46">
-        <v>1</v>
-      </c>
-      <c r="D15" s="65">
+      <c r="C15" s="44">
+        <v>1</v>
+      </c>
+      <c r="D15" s="71">
         <v>8</v>
       </c>
-      <c r="E15" s="53">
-        <v>1</v>
-      </c>
-      <c r="F15" s="54">
+      <c r="E15" s="36">
+        <v>1</v>
+      </c>
+      <c r="F15" s="52">
         <v>0.25</v>
       </c>
-      <c r="G15" s="53">
+      <c r="G15" s="36">
         <v>8</v>
       </c>
-      <c r="H15" s="53">
-        <v>1</v>
-      </c>
-      <c r="I15" s="53">
+      <c r="H15" s="36">
+        <v>1</v>
+      </c>
+      <c r="I15" s="51">
         <v>64</v>
       </c>
-      <c r="J15" s="53">
+      <c r="J15" s="51">
         <v>512</v>
       </c>
-      <c r="K15" s="38">
+      <c r="K15" s="36">
         <v>0.8</v>
       </c>
-      <c r="L15" s="56">
+      <c r="L15" s="54">
         <v>7.8125E-3</v>
       </c>
-      <c r="M15" s="53">
-        <v>1</v>
-      </c>
-      <c r="N15" s="54">
+      <c r="M15" s="36">
+        <v>1</v>
+      </c>
+      <c r="N15" s="52">
         <v>0.05</v>
       </c>
-      <c r="O15" s="56">
+      <c r="O15" s="54">
         <v>3.90625E-3</v>
       </c>
-      <c r="P15" s="67">
+      <c r="P15" s="64">
         <v>6.25E-2</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
-      <c r="C16" s="47" t="s">
+      <c r="C16" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="64">
+      <c r="D16" s="62">
         <v>6.25E-2</v>
       </c>
-      <c r="E16" s="53">
+      <c r="E16" s="51">
         <v>128</v>
       </c>
-      <c r="F16" s="53">
-        <v>2</v>
-      </c>
-      <c r="G16" s="38">
+      <c r="F16" s="36">
+        <v>2</v>
+      </c>
+      <c r="G16" s="36">
         <v>0.5</v>
       </c>
-      <c r="H16" s="38">
+      <c r="H16" s="36">
         <v>0.6</v>
       </c>
-      <c r="I16" s="53">
-        <v>1</v>
-      </c>
-      <c r="J16" s="56">
+      <c r="I16" s="36">
+        <v>1</v>
+      </c>
+      <c r="J16" s="54">
         <v>9.765625E-4</v>
       </c>
-      <c r="K16" s="53">
-        <v>2</v>
-      </c>
-      <c r="L16" s="53">
+      <c r="K16" s="51">
+        <v>2</v>
+      </c>
+      <c r="L16" s="51">
         <v>256</v>
       </c>
-      <c r="M16" s="56">
+      <c r="M16" s="54">
         <v>7.8125E-3</v>
       </c>
-      <c r="N16" s="38">
+      <c r="N16" s="36">
         <v>0.1</v>
       </c>
-      <c r="O16" s="54">
+      <c r="O16" s="52">
         <v>0.25</v>
       </c>
-      <c r="P16" s="69">
+      <c r="P16" s="66">
         <v>32</v>
       </c>
     </row>
@@ -7007,83 +7483,187 @@
       <c r="B17" s="1">
         <v>1</v>
       </c>
-      <c r="C17" s="46">
-        <v>1</v>
-      </c>
-      <c r="D17" s="64"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="53"/>
-      <c r="M17" s="56"/>
-      <c r="N17" s="38"/>
-      <c r="O17" s="53"/>
-      <c r="P17" s="69"/>
+      <c r="C17" s="44">
+        <v>1</v>
+      </c>
+      <c r="D17" s="63">
+        <v>8</v>
+      </c>
+      <c r="E17" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="F17" s="51">
+        <v>1024</v>
+      </c>
+      <c r="G17" s="51">
+        <v>128</v>
+      </c>
+      <c r="H17" s="36">
+        <v>0.4</v>
+      </c>
+      <c r="I17" s="52">
+        <v>0.25</v>
+      </c>
+      <c r="J17" s="53">
+        <v>6.25E-2</v>
+      </c>
+      <c r="K17" s="36">
+        <v>2.8</v>
+      </c>
+      <c r="L17" s="53">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="M17" s="54">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="N17" s="36">
+        <v>-0.5</v>
+      </c>
+      <c r="O17" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="P17" s="65">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
-      <c r="C18" s="46" t="s">
+      <c r="C18" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="64"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="53"/>
-      <c r="L18" s="53"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="38"/>
-      <c r="O18" s="53"/>
-      <c r="P18" s="26"/>
+      <c r="D18" s="62">
+        <v>0.125</v>
+      </c>
+      <c r="E18" s="54">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="F18" s="36">
+        <v>1</v>
+      </c>
+      <c r="G18" s="15">
+        <v>9.765625E-4</v>
+      </c>
+      <c r="H18" s="36">
+        <v>0.4</v>
+      </c>
+      <c r="I18" s="15">
+        <v>9.765625E-4</v>
+      </c>
+      <c r="J18" s="15">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="K18" s="36">
+        <v>0.6</v>
+      </c>
+      <c r="L18" s="36">
+        <v>2</v>
+      </c>
+      <c r="M18" s="54">
+        <v>6.25E-2</v>
+      </c>
+      <c r="N18" s="36">
+        <v>-0.5</v>
+      </c>
+      <c r="O18" s="52">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="P18" s="26">
+        <v>6.25E-2</v>
+      </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="1">
         <v>2</v>
       </c>
-      <c r="C19" s="46">
-        <v>1</v>
-      </c>
-      <c r="D19" s="64"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="56"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="53"/>
-      <c r="P19" s="68"/>
+      <c r="C19" s="44">
+        <v>1</v>
+      </c>
+      <c r="D19" s="62">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="E19" s="36">
+        <v>1</v>
+      </c>
+      <c r="F19" s="36">
+        <v>8</v>
+      </c>
+      <c r="G19" s="53">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="H19" s="36">
+        <v>3</v>
+      </c>
+      <c r="I19" s="52">
+        <v>0.25</v>
+      </c>
+      <c r="J19" s="15">
+        <v>0.125</v>
+      </c>
+      <c r="K19" s="36">
+        <v>2.6</v>
+      </c>
+      <c r="L19" s="15">
+        <v>0.125</v>
+      </c>
+      <c r="M19" s="54">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="N19" s="15">
+        <v>-0.125</v>
+      </c>
+      <c r="O19" s="51">
+        <v>1024</v>
+      </c>
+      <c r="P19" s="72">
+        <v>4</v>
+      </c>
     </row>
     <row r="20" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
-      <c r="C20" s="47" t="s">
+      <c r="C20" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="66"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="71"/>
-      <c r="H20" s="72"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="59"/>
-      <c r="K20" s="72"/>
-      <c r="L20" s="73"/>
-      <c r="M20" s="59"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="70"/>
-      <c r="P20" s="75"/>
+      <c r="D20" s="74">
+        <v>4</v>
+      </c>
+      <c r="E20" s="57">
+        <v>3.125E-2</v>
+      </c>
+      <c r="F20" s="68">
+        <v>0.5</v>
+      </c>
+      <c r="G20" s="67">
+        <v>0.25</v>
+      </c>
+      <c r="H20" s="68">
+        <v>3</v>
+      </c>
+      <c r="I20" s="57">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="J20" s="57">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="K20" s="68">
+        <v>0.6</v>
+      </c>
+      <c r="L20" s="68">
+        <v>2</v>
+      </c>
+      <c r="M20" s="19">
+        <v>0.125</v>
+      </c>
+      <c r="N20" s="19">
+        <v>0.125</v>
+      </c>
+      <c r="O20" s="69">
+        <v>32</v>
+      </c>
+      <c r="P20" s="73">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B22" s="11"/>
@@ -7353,69 +7933,74 @@
     <col min="3" max="3" width="12.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.7109375" customWidth="1"/>
+    <col min="10" max="10" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" customWidth="1"/>
+    <col min="12" max="12" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="18" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
     </row>
     <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D3" s="81" t="s">
+      <c r="D3" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="79"/>
-      <c r="F3" s="78" t="s">
+      <c r="E3" s="78"/>
+      <c r="F3" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="79"/>
-      <c r="H3" s="78" t="s">
+      <c r="G3" s="78"/>
+      <c r="H3" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="79"/>
-      <c r="J3" s="78" t="s">
+      <c r="I3" s="78"/>
+      <c r="J3" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="79"/>
-      <c r="L3" s="78" t="s">
+      <c r="K3" s="78"/>
+      <c r="L3" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="79"/>
-      <c r="N3" s="78" t="s">
+      <c r="M3" s="78"/>
+      <c r="N3" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="79"/>
-      <c r="P3" s="78" t="s">
+      <c r="O3" s="78"/>
+      <c r="P3" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="Q3" s="79"/>
-      <c r="R3" s="78" t="s">
+      <c r="Q3" s="78"/>
+      <c r="R3" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="80"/>
+      <c r="S3" s="79"/>
     </row>
     <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -7427,52 +8012,52 @@
       <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="44" t="s">
+      <c r="D4" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="44" t="s">
+      <c r="E4" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="44" t="s">
+      <c r="F4" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="44" t="s">
+      <c r="G4" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="44" t="s">
+      <c r="H4" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="44" t="s">
+      <c r="I4" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="44" t="s">
+      <c r="J4" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="44" t="s">
+      <c r="K4" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="44" t="s">
+      <c r="L4" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="M4" s="44" t="s">
+      <c r="M4" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="N4" s="44" t="s">
+      <c r="N4" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="44" t="s">
+      <c r="O4" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="P4" s="44" t="s">
+      <c r="P4" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="Q4" s="44" t="s">
+      <c r="Q4" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="R4" s="44" t="s">
+      <c r="R4" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="S4" s="44" t="s">
+      <c r="S4" s="42" t="s">
         <v>28</v>
       </c>
     </row>
@@ -7486,52 +8071,52 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="52">
+      <c r="D5" s="50">
         <v>1.953125E-3</v>
       </c>
-      <c r="E5" s="51">
+      <c r="E5" s="49">
         <v>1024.001</v>
       </c>
-      <c r="F5" s="52">
+      <c r="F5" s="50">
         <v>1.5625E-2</v>
       </c>
-      <c r="G5" s="51">
+      <c r="G5" s="49">
         <v>1024.001</v>
       </c>
-      <c r="H5" s="52">
+      <c r="H5" s="50">
         <v>7.8125E-3</v>
       </c>
-      <c r="I5" s="51">
+      <c r="I5" s="49">
         <v>1024.001</v>
       </c>
       <c r="J5" s="12">
         <v>1.953125E-3</v>
       </c>
-      <c r="K5" s="51">
+      <c r="K5" s="49">
         <v>1024.001</v>
       </c>
       <c r="L5" s="12">
         <v>1.953125E-3</v>
       </c>
-      <c r="M5" s="51">
+      <c r="M5" s="49">
         <v>1024.001</v>
       </c>
       <c r="N5" s="12">
         <v>-0.125</v>
       </c>
-      <c r="O5" s="51">
+      <c r="O5" s="49">
         <v>1024.001</v>
       </c>
-      <c r="P5" s="52">
+      <c r="P5" s="50">
         <v>1.953125E-3</v>
       </c>
-      <c r="Q5" s="51">
+      <c r="Q5" s="49">
         <v>1024.001</v>
       </c>
-      <c r="R5" s="52">
+      <c r="R5" s="50">
         <v>1.953125E-3</v>
       </c>
-      <c r="S5" s="51">
+      <c r="S5" s="49">
         <v>1024.001</v>
       </c>
     </row>
@@ -7540,52 +8125,52 @@
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="55">
+      <c r="D6" s="53">
         <v>3.90625E-3</v>
       </c>
-      <c r="E6" s="53">
+      <c r="E6" s="51">
         <v>1024.001</v>
       </c>
-      <c r="F6" s="53">
-        <v>1</v>
-      </c>
-      <c r="G6" s="53">
+      <c r="F6" s="51">
+        <v>1</v>
+      </c>
+      <c r="G6" s="51">
         <v>1024.001</v>
       </c>
-      <c r="H6" s="54">
+      <c r="H6" s="52">
         <v>0.25</v>
       </c>
-      <c r="I6" s="53">
+      <c r="I6" s="51">
         <v>1024.001</v>
       </c>
       <c r="J6" s="15">
         <v>0.125</v>
       </c>
-      <c r="K6" s="53">
+      <c r="K6" s="51">
         <v>1024.001</v>
       </c>
-      <c r="L6" s="54">
+      <c r="L6" s="52">
         <v>0.25</v>
       </c>
-      <c r="M6" s="53">
+      <c r="M6" s="51">
         <v>1024.001</v>
       </c>
-      <c r="N6" s="53">
+      <c r="N6" s="51">
         <v>-8</v>
       </c>
-      <c r="O6" s="53">
+      <c r="O6" s="51">
         <v>1024.001</v>
       </c>
-      <c r="P6" s="55">
+      <c r="P6" s="53">
         <v>3.90625E-3</v>
       </c>
-      <c r="Q6" s="53">
+      <c r="Q6" s="51">
         <v>1024.001</v>
       </c>
-      <c r="R6" s="53">
-        <v>1</v>
-      </c>
-      <c r="S6" s="53">
+      <c r="R6" s="51">
+        <v>1</v>
+      </c>
+      <c r="S6" s="51">
         <v>1024.001</v>
       </c>
     </row>
@@ -7597,52 +8182,52 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="55">
+      <c r="D7" s="53">
         <v>1.953125E-3</v>
       </c>
-      <c r="E7" s="53">
+      <c r="E7" s="51">
         <v>1024.001</v>
       </c>
-      <c r="F7" s="55">
+      <c r="F7" s="53">
         <v>6.25E-2</v>
       </c>
-      <c r="G7" s="53">
+      <c r="G7" s="51">
         <v>1024.001</v>
       </c>
-      <c r="H7" s="55">
+      <c r="H7" s="53">
         <v>7.8125E-3</v>
       </c>
-      <c r="I7" s="53">
+      <c r="I7" s="51">
         <v>1024.001</v>
       </c>
-      <c r="J7" s="54">
+      <c r="J7" s="52">
         <v>0.25</v>
       </c>
-      <c r="K7" s="53">
+      <c r="K7" s="51">
         <v>1024.001</v>
       </c>
-      <c r="L7" s="53">
-        <v>1</v>
-      </c>
-      <c r="M7" s="53">
+      <c r="L7" s="51">
+        <v>1</v>
+      </c>
+      <c r="M7" s="51">
         <v>1024.001</v>
       </c>
-      <c r="N7" s="55">
+      <c r="N7" s="53">
         <v>-1.5625E-2</v>
       </c>
-      <c r="O7" s="53">
+      <c r="O7" s="51">
         <v>1024.001</v>
       </c>
-      <c r="P7" s="55">
+      <c r="P7" s="53">
         <v>1.953125E-3</v>
       </c>
-      <c r="Q7" s="53">
+      <c r="Q7" s="51">
         <v>1024.001</v>
       </c>
-      <c r="R7" s="54">
+      <c r="R7" s="52">
         <v>0.25</v>
       </c>
-      <c r="S7" s="53">
+      <c r="S7" s="51">
         <v>1024.001</v>
       </c>
     </row>
@@ -7652,52 +8237,52 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="55">
+      <c r="D8" s="53">
         <v>3.90625E-3</v>
       </c>
-      <c r="E8" s="53">
+      <c r="E8" s="51">
         <v>1024.001</v>
       </c>
-      <c r="F8" s="54">
+      <c r="F8" s="52">
         <v>0.25</v>
       </c>
-      <c r="G8" s="53">
+      <c r="G8" s="51">
         <v>1024.001</v>
       </c>
-      <c r="H8" s="53">
+      <c r="H8" s="51">
         <v>64</v>
       </c>
-      <c r="I8" s="53">
+      <c r="I8" s="51">
         <v>1024.001</v>
       </c>
-      <c r="J8" s="38">
+      <c r="J8" s="36">
         <v>0.5</v>
       </c>
-      <c r="K8" s="53">
+      <c r="K8" s="51">
         <v>1024.001</v>
       </c>
-      <c r="L8" s="38">
+      <c r="L8" s="36">
         <v>0.5</v>
       </c>
-      <c r="M8" s="53">
+      <c r="M8" s="51">
         <v>1024.001</v>
       </c>
       <c r="N8" s="15">
         <v>-0.125</v>
       </c>
-      <c r="O8" s="53">
+      <c r="O8" s="51">
         <v>1024.001</v>
       </c>
-      <c r="P8" s="55">
+      <c r="P8" s="53">
         <v>1.953125E-3</v>
       </c>
-      <c r="Q8" s="53">
+      <c r="Q8" s="51">
         <v>1024.001</v>
       </c>
-      <c r="R8" s="53">
-        <v>1</v>
-      </c>
-      <c r="S8" s="53">
+      <c r="R8" s="51">
+        <v>1</v>
+      </c>
+      <c r="S8" s="51">
         <v>1024.001</v>
       </c>
     </row>
@@ -7711,49 +8296,49 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="54">
+      <c r="D9" s="52">
         <v>0.99</v>
       </c>
       <c r="E9" s="15">
         <v>0.99099999999999999</v>
       </c>
-      <c r="F9" s="38">
+      <c r="F9" s="36">
         <v>0.5</v>
       </c>
       <c r="G9" s="15">
         <v>0.99099999999999999</v>
       </c>
-      <c r="H9" s="54">
+      <c r="H9" s="52">
         <v>0.99</v>
       </c>
       <c r="I9" s="15">
         <v>0.99099999999999999</v>
       </c>
-      <c r="J9" s="54">
+      <c r="J9" s="52">
         <v>0.99</v>
       </c>
       <c r="K9" s="15">
         <v>0.99099999999999999</v>
       </c>
-      <c r="L9" s="38">
+      <c r="L9" s="36">
         <v>0.3</v>
       </c>
       <c r="M9" s="15">
         <v>0.99099999999999999</v>
       </c>
-      <c r="N9" s="38">
+      <c r="N9" s="36">
         <v>0.4</v>
       </c>
-      <c r="O9" s="53">
-        <v>1</v>
-      </c>
-      <c r="P9" s="54">
+      <c r="O9" s="51">
+        <v>1</v>
+      </c>
+      <c r="P9" s="52">
         <v>0.99</v>
       </c>
       <c r="Q9" s="15">
         <v>0.99099999999999999</v>
       </c>
-      <c r="R9" s="38">
+      <c r="R9" s="36">
         <v>0.1</v>
       </c>
       <c r="S9" s="15">
@@ -7765,49 +8350,49 @@
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="54">
+      <c r="D10" s="52">
         <v>0.99</v>
       </c>
       <c r="E10" s="15">
         <v>0.99099999999999999</v>
       </c>
-      <c r="F10" s="38">
+      <c r="F10" s="36">
         <v>0.1</v>
       </c>
       <c r="G10" s="15">
         <v>0.99099999999999999</v>
       </c>
-      <c r="H10" s="54">
+      <c r="H10" s="52">
         <v>0.99</v>
       </c>
       <c r="I10" s="15">
         <v>0.99099999999999999</v>
       </c>
-      <c r="J10" s="38">
+      <c r="J10" s="36">
         <v>0.3</v>
       </c>
       <c r="K10" s="15">
         <v>0.99099999999999999</v>
       </c>
-      <c r="L10" s="54">
+      <c r="L10" s="52">
         <v>0.01</v>
       </c>
       <c r="M10" s="15">
         <v>0.99099999999999999</v>
       </c>
-      <c r="N10" s="54">
+      <c r="N10" s="52">
         <v>0.99</v>
       </c>
-      <c r="O10" s="53">
-        <v>1</v>
-      </c>
-      <c r="P10" s="54">
+      <c r="O10" s="51">
+        <v>1</v>
+      </c>
+      <c r="P10" s="52">
         <v>0.99</v>
       </c>
       <c r="Q10" s="15">
         <v>0.99099999999999999</v>
       </c>
-      <c r="R10" s="54">
+      <c r="R10" s="52">
         <v>0.01</v>
       </c>
       <c r="S10" s="15">
@@ -7822,49 +8407,49 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="54">
+      <c r="D11" s="52">
         <v>0.9</v>
       </c>
       <c r="E11" s="15">
         <v>0.99099999999999999</v>
       </c>
-      <c r="F11" s="54">
+      <c r="F11" s="52">
         <v>0.9</v>
       </c>
       <c r="G11" s="15">
         <v>0.99099999999999999</v>
       </c>
-      <c r="H11" s="54">
+      <c r="H11" s="52">
         <v>0.99</v>
       </c>
       <c r="I11" s="15">
         <v>0.99099999999999999</v>
       </c>
-      <c r="J11" s="54">
+      <c r="J11" s="52">
         <v>0.99</v>
       </c>
       <c r="K11" s="15">
         <v>0.99099999999999999</v>
       </c>
-      <c r="L11" s="54">
+      <c r="L11" s="52">
         <v>0.99</v>
       </c>
       <c r="M11" s="15">
         <v>0.99099999999999999</v>
       </c>
-      <c r="N11" s="38">
+      <c r="N11" s="36">
         <v>0.7</v>
       </c>
-      <c r="O11" s="53">
-        <v>1</v>
-      </c>
-      <c r="P11" s="54">
+      <c r="O11" s="51">
+        <v>1</v>
+      </c>
+      <c r="P11" s="52">
         <v>0.99</v>
       </c>
       <c r="Q11" s="15">
         <v>0.99099999999999999</v>
       </c>
-      <c r="R11" s="38">
+      <c r="R11" s="36">
         <v>0.1</v>
       </c>
       <c r="S11" s="15">
@@ -7877,49 +8462,49 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="54">
+      <c r="D12" s="52">
         <v>0.99</v>
       </c>
       <c r="E12" s="15">
         <v>0.99099999999999999</v>
       </c>
-      <c r="F12" s="54">
+      <c r="F12" s="52">
         <v>0.01</v>
       </c>
       <c r="G12" s="15">
         <v>0.99099999999999999</v>
       </c>
-      <c r="H12" s="54">
+      <c r="H12" s="52">
         <v>0.99</v>
       </c>
       <c r="I12" s="15">
         <v>0.99099999999999999</v>
       </c>
-      <c r="J12" s="38">
+      <c r="J12" s="36">
         <v>0.1</v>
       </c>
       <c r="K12" s="15">
         <v>0.99099999999999999</v>
       </c>
-      <c r="L12" s="54">
+      <c r="L12" s="52">
         <v>0.01</v>
       </c>
       <c r="M12" s="15">
         <v>0.99099999999999999</v>
       </c>
-      <c r="N12" s="38">
+      <c r="N12" s="36">
         <v>0.8</v>
       </c>
-      <c r="O12" s="53">
-        <v>1</v>
-      </c>
-      <c r="P12" s="54">
+      <c r="O12" s="51">
+        <v>1</v>
+      </c>
+      <c r="P12" s="52">
         <v>0.99</v>
       </c>
       <c r="Q12" s="15">
         <v>0.99099999999999999</v>
       </c>
-      <c r="R12" s="38">
+      <c r="R12" s="36">
         <v>0.1</v>
       </c>
       <c r="S12" s="15">
@@ -7936,19 +8521,19 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="55">
+      <c r="D13" s="53">
         <v>3.90625E-3</v>
       </c>
-      <c r="E13" s="53">
+      <c r="E13" s="51">
         <v>4.0009765625</v>
       </c>
-      <c r="F13" s="55">
+      <c r="F13" s="53">
         <v>1.5625E-2</v>
       </c>
-      <c r="G13" s="53">
+      <c r="G13" s="51">
         <v>128.0009765625</v>
       </c>
-      <c r="H13" s="55">
+      <c r="H13" s="53">
         <v>1.953125E-3</v>
       </c>
       <c r="I13" s="15">
@@ -7957,28 +8542,28 @@
       <c r="J13" s="15">
         <v>9.765625E-4</v>
       </c>
-      <c r="K13" s="53">
+      <c r="K13" s="51">
         <v>1024.0009765625</v>
       </c>
-      <c r="L13" s="38">
+      <c r="L13" s="36">
         <v>0.5</v>
       </c>
       <c r="M13" s="15">
         <v>1.0009765625</v>
       </c>
-      <c r="N13" s="55">
+      <c r="N13" s="53">
         <v>1.953125E-3</v>
       </c>
-      <c r="O13" s="55">
+      <c r="O13" s="53">
         <v>8.7890625E-3</v>
       </c>
-      <c r="P13" s="55">
+      <c r="P13" s="53">
         <v>1.953125E-3</v>
       </c>
-      <c r="Q13" s="55">
+      <c r="Q13" s="53">
         <v>1.66015625E-2</v>
       </c>
-      <c r="R13" s="55">
+      <c r="R13" s="53">
         <v>3.90625E-3</v>
       </c>
       <c r="S13" s="15">
@@ -7990,49 +8575,49 @@
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="55">
+      <c r="D14" s="53">
         <v>7.8125E-3</v>
       </c>
-      <c r="E14" s="53">
+      <c r="E14" s="51">
         <v>32.0009765625</v>
       </c>
-      <c r="F14" s="55">
+      <c r="F14" s="53">
         <v>7.8125E-3</v>
       </c>
-      <c r="G14" s="55">
+      <c r="G14" s="53">
         <v>8.7890625E-3</v>
       </c>
-      <c r="H14" s="55">
+      <c r="H14" s="53">
         <v>3.125E-2</v>
       </c>
-      <c r="I14" s="53">
+      <c r="I14" s="51">
         <v>512.0009765625</v>
       </c>
-      <c r="J14" s="55">
+      <c r="J14" s="53">
         <v>3.90625E-3</v>
       </c>
-      <c r="K14" s="53">
+      <c r="K14" s="51">
         <v>16.0009765625</v>
       </c>
       <c r="L14" s="15">
         <v>0.125</v>
       </c>
-      <c r="M14" s="53">
+      <c r="M14" s="51">
         <v>512.0009765625</v>
       </c>
-      <c r="N14" s="55">
+      <c r="N14" s="53">
         <v>3.90625E-3</v>
       </c>
-      <c r="O14" s="53">
+      <c r="O14" s="51">
         <v>1.0009765625</v>
       </c>
-      <c r="P14" s="55">
+      <c r="P14" s="53">
         <v>9.765625E-4</v>
       </c>
-      <c r="Q14" s="55">
+      <c r="Q14" s="53">
         <v>8.7890625E-3</v>
       </c>
-      <c r="R14" s="55">
+      <c r="R14" s="53">
         <v>1.5625E-2</v>
       </c>
       <c r="S14" s="15">
@@ -8047,49 +8632,49 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="53">
+      <c r="D15" s="51">
         <v>2</v>
       </c>
       <c r="E15" s="15">
         <v>0.1259765625</v>
       </c>
-      <c r="F15" s="53">
+      <c r="F15" s="51">
         <v>64</v>
       </c>
-      <c r="G15" s="53">
+      <c r="G15" s="51">
         <v>32.0009765625</v>
       </c>
-      <c r="H15" s="53">
+      <c r="H15" s="51">
         <v>256</v>
       </c>
-      <c r="I15" s="38">
+      <c r="I15" s="36">
         <v>0.5009765625</v>
       </c>
-      <c r="J15" s="53">
+      <c r="J15" s="51">
         <v>16</v>
       </c>
       <c r="K15" s="15">
         <v>0.2509765625</v>
       </c>
-      <c r="L15" s="53">
+      <c r="L15" s="51">
         <v>8</v>
       </c>
-      <c r="M15" s="53">
+      <c r="M15" s="51">
         <v>64.0009765625</v>
       </c>
-      <c r="N15" s="53">
+      <c r="N15" s="36">
         <v>1</v>
       </c>
       <c r="O15" s="15">
         <v>0.5009765625</v>
       </c>
-      <c r="P15" s="53">
+      <c r="P15" s="51">
         <v>16</v>
       </c>
-      <c r="Q15" s="53">
+      <c r="Q15" s="51">
         <v>256.0009765625</v>
       </c>
-      <c r="R15" s="53">
+      <c r="R15" s="51">
         <v>512</v>
       </c>
       <c r="S15" s="15">
@@ -8102,40 +8687,40 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="53">
+      <c r="D16" s="51">
         <v>128</v>
       </c>
-      <c r="E16" s="53">
+      <c r="E16" s="51">
         <v>64.0009765625</v>
       </c>
-      <c r="F16" s="53">
+      <c r="F16" s="51">
         <v>1024</v>
       </c>
-      <c r="G16" s="38">
+      <c r="G16" s="52">
         <v>0.5009765625</v>
       </c>
       <c r="H16" s="15">
         <v>9.765625E-4</v>
       </c>
-      <c r="I16" s="53">
+      <c r="I16" s="36">
         <v>2.0009765625</v>
       </c>
-      <c r="J16" s="53">
+      <c r="J16" s="36">
         <v>4</v>
       </c>
-      <c r="K16" s="53">
+      <c r="K16" s="36">
         <v>1.0009765625</v>
       </c>
-      <c r="L16" s="55">
+      <c r="L16" s="53">
         <v>3.90625E-3</v>
       </c>
-      <c r="M16" s="53">
+      <c r="M16" s="51">
         <v>64.0009765625</v>
       </c>
-      <c r="N16" s="53">
-        <v>2</v>
-      </c>
-      <c r="O16" s="55">
+      <c r="N16" s="36">
+        <v>2</v>
+      </c>
+      <c r="O16" s="53">
         <v>2.9296875E-3</v>
       </c>
       <c r="P16" s="15">
@@ -8144,7 +8729,7 @@
       <c r="Q16" s="15">
         <v>0.1259765625</v>
       </c>
-      <c r="R16" s="53">
+      <c r="R16" s="51">
         <v>32</v>
       </c>
       <c r="S16" s="15">
@@ -8161,44 +8746,108 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="55"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="38"/>
-      <c r="N17" s="53"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="55"/>
-      <c r="Q17" s="53"/>
-      <c r="R17" s="53"/>
-      <c r="S17" s="53"/>
+      <c r="D17" s="15">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="E17" s="36">
+        <v>2.0009765625</v>
+      </c>
+      <c r="F17" s="52">
+        <v>0.5</v>
+      </c>
+      <c r="G17" s="51">
+        <v>1024.0009765625</v>
+      </c>
+      <c r="H17" s="53">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="I17" s="51">
+        <v>32.0009765625</v>
+      </c>
+      <c r="J17" s="52">
+        <v>0.5</v>
+      </c>
+      <c r="K17" s="51">
+        <v>256.0009765625</v>
+      </c>
+      <c r="L17" s="53">
+        <v>6.25E-2</v>
+      </c>
+      <c r="M17" s="36">
+        <v>4.0009765625</v>
+      </c>
+      <c r="N17" s="15">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="O17" s="51">
+        <v>8.0009765625</v>
+      </c>
+      <c r="P17" s="15">
+        <v>0.125</v>
+      </c>
+      <c r="Q17" s="51">
+        <v>1024.0009765625</v>
+      </c>
+      <c r="R17" s="51">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="S17" s="51">
+        <v>512.0009765625</v>
+      </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="53"/>
-      <c r="K18" s="53"/>
-      <c r="L18" s="55"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="55"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="53"/>
-      <c r="R18" s="55"/>
-      <c r="S18" s="53"/>
+      <c r="D18" s="15">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="E18" s="51">
+        <v>1024.0009765625</v>
+      </c>
+      <c r="F18" s="52">
+        <v>0.5</v>
+      </c>
+      <c r="G18" s="36">
+        <v>8.0009765625</v>
+      </c>
+      <c r="H18" s="52">
+        <v>0.5</v>
+      </c>
+      <c r="I18" s="36">
+        <v>4.0009765625</v>
+      </c>
+      <c r="J18" s="52">
+        <v>0.5</v>
+      </c>
+      <c r="K18" s="51">
+        <v>64.0009765625</v>
+      </c>
+      <c r="L18" s="52">
+        <v>0.25</v>
+      </c>
+      <c r="M18" s="51">
+        <v>4.0009765625</v>
+      </c>
+      <c r="N18" s="53">
+        <v>3.125E-2</v>
+      </c>
+      <c r="O18" s="51">
+        <v>8.0009765625</v>
+      </c>
+      <c r="P18" s="52">
+        <v>0.5</v>
+      </c>
+      <c r="Q18" s="51">
+        <v>16.0009765625</v>
+      </c>
+      <c r="R18" s="53">
+        <v>6.25E-2</v>
+      </c>
+      <c r="S18" s="51">
+        <v>128.0009765625</v>
+      </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
@@ -8208,22 +8857,54 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="55"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="55"/>
-      <c r="M19" s="53"/>
-      <c r="N19" s="54"/>
-      <c r="O19" s="53"/>
-      <c r="P19" s="55"/>
-      <c r="Q19" s="53"/>
-      <c r="R19" s="55"/>
-      <c r="S19" s="15"/>
+      <c r="D19" s="53">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="E19" s="51">
+        <v>64.0009765625</v>
+      </c>
+      <c r="F19" s="52">
+        <v>0.25</v>
+      </c>
+      <c r="G19" s="51">
+        <v>1024.0009765625</v>
+      </c>
+      <c r="H19" s="52">
+        <v>0.5</v>
+      </c>
+      <c r="I19" s="53">
+        <v>4.0009765625</v>
+      </c>
+      <c r="J19" s="15">
+        <v>0.125</v>
+      </c>
+      <c r="K19" s="51">
+        <v>4.0009765625</v>
+      </c>
+      <c r="L19" s="53">
+        <v>3.125E-2</v>
+      </c>
+      <c r="M19" s="51">
+        <v>512.0009765625</v>
+      </c>
+      <c r="N19" s="52">
+        <v>0.5</v>
+      </c>
+      <c r="O19" s="51">
+        <v>256.0009765625</v>
+      </c>
+      <c r="P19" s="53">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="Q19" s="51">
+        <v>256.0009765625</v>
+      </c>
+      <c r="R19" s="52">
+        <v>0.5</v>
+      </c>
+      <c r="S19" s="51">
+        <v>512.0009765625</v>
+      </c>
     </row>
     <row r="20" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
@@ -8231,22 +8912,54 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="55"/>
-      <c r="L20" s="55"/>
-      <c r="M20" s="53"/>
-      <c r="N20" s="53"/>
-      <c r="O20" s="53"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="55"/>
-      <c r="S20" s="15"/>
+      <c r="D20" s="15">
+        <v>0.125</v>
+      </c>
+      <c r="E20" s="51">
+        <v>256.0009765625</v>
+      </c>
+      <c r="F20" s="52">
+        <v>0.5</v>
+      </c>
+      <c r="G20" s="36">
+        <v>2.0009765625</v>
+      </c>
+      <c r="H20" s="15">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="I20" s="15">
+        <v>512.0009765625</v>
+      </c>
+      <c r="J20" s="52">
+        <v>0.5</v>
+      </c>
+      <c r="K20" s="51">
+        <v>64.0009765625</v>
+      </c>
+      <c r="L20" s="52">
+        <v>0.5</v>
+      </c>
+      <c r="M20" s="51">
+        <v>16.0009765625</v>
+      </c>
+      <c r="N20" s="51">
+        <v>-0.5</v>
+      </c>
+      <c r="O20" s="51">
+        <v>16.0009765625</v>
+      </c>
+      <c r="P20" s="15">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="Q20" s="15">
+        <v>2.0009765625</v>
+      </c>
+      <c r="R20" s="52">
+        <v>0.25</v>
+      </c>
+      <c r="S20" s="51">
+        <v>256.0009765625</v>
+      </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B22" s="11"/>

--- a/results_analysis/spark_motorFailure_02_hold2_surprise2.xlsx
+++ b/results_analysis/spark_motorFailure_02_hold2_surprise2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\MLTool_matlab\results_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D152319B-4975-4AEA-A2EE-7509604787DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA29985-C157-46B8-A8BA-45FB3A4075BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="734" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -526,7 +526,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -768,34 +768,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1546,28 +1534,28 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="81">
+      <c r="D17" s="29">
         <v>0.73026315789473695</v>
       </c>
-      <c r="E17" s="82">
+      <c r="E17" s="23">
         <v>0.92763157894736903</v>
       </c>
-      <c r="F17" s="82">
+      <c r="F17" s="23">
         <v>0.88815789473684204</v>
       </c>
-      <c r="G17" s="82">
+      <c r="G17" s="24">
         <v>0.96710526315789502</v>
       </c>
-      <c r="H17" s="82">
+      <c r="H17" s="24">
         <v>0.95394736842105299</v>
       </c>
-      <c r="I17" s="82">
+      <c r="I17" s="24">
         <v>0.96052631578947401</v>
       </c>
-      <c r="J17" s="82">
+      <c r="J17" s="23">
         <v>0.73026315789473695</v>
       </c>
-      <c r="K17" s="83">
+      <c r="K17" s="40">
         <v>0.92763157894736903</v>
       </c>
     </row>
@@ -1576,28 +1564,28 @@
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="84">
+      <c r="D18" s="14">
         <v>0.71710526315789502</v>
       </c>
-      <c r="E18" s="85">
-        <v>1</v>
-      </c>
-      <c r="F18" s="85">
+      <c r="E18" s="16">
+        <v>1</v>
+      </c>
+      <c r="F18" s="15">
         <v>0.82236842105263197</v>
       </c>
-      <c r="G18" s="85">
-        <v>1</v>
-      </c>
-      <c r="H18" s="85">
+      <c r="G18" s="16">
+        <v>1</v>
+      </c>
+      <c r="H18" s="16">
         <v>0.98684210526315796</v>
       </c>
-      <c r="I18" s="85">
+      <c r="I18" s="15">
         <v>0.93421052631579005</v>
       </c>
-      <c r="J18" s="85">
+      <c r="J18" s="15">
         <v>0.75657894736842102</v>
       </c>
-      <c r="K18" s="86">
+      <c r="K18" s="26">
         <v>0.96710526315789502</v>
       </c>
     </row>
@@ -1609,28 +1597,28 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="84">
+      <c r="D19" s="14">
         <v>0.77631578947368396</v>
       </c>
-      <c r="E19" s="85">
+      <c r="E19" s="15">
         <v>0.92763157894736903</v>
       </c>
-      <c r="F19" s="85">
+      <c r="F19" s="15">
         <v>0.88815789473684204</v>
       </c>
-      <c r="G19" s="85">
+      <c r="G19" s="16">
         <v>0.94078947368421095</v>
       </c>
-      <c r="H19" s="85">
+      <c r="H19" s="16">
         <v>0.96052631578947401</v>
       </c>
-      <c r="I19" s="85">
+      <c r="I19" s="16">
         <v>0.94078947368421095</v>
       </c>
-      <c r="J19" s="85">
+      <c r="J19" s="15">
         <v>0.73684210526315796</v>
       </c>
-      <c r="K19" s="86">
+      <c r="K19" s="17">
         <v>0.94736842105263197</v>
       </c>
     </row>
@@ -1640,28 +1628,28 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="87">
+      <c r="D20" s="18">
         <v>0.76973684210526305</v>
       </c>
-      <c r="E20" s="88">
-        <v>1</v>
-      </c>
-      <c r="F20" s="88">
+      <c r="E20" s="20">
+        <v>1</v>
+      </c>
+      <c r="F20" s="19">
         <v>0.90131578947368396</v>
       </c>
-      <c r="G20" s="88">
+      <c r="G20" s="19">
         <v>0.93421052631579005</v>
       </c>
-      <c r="H20" s="88">
+      <c r="H20" s="20">
         <v>0.98684210526315796</v>
       </c>
-      <c r="I20" s="88">
+      <c r="I20" s="19">
         <v>0.94736842105263197</v>
       </c>
-      <c r="J20" s="88">
+      <c r="J20" s="19">
         <v>0.76315789473684204</v>
       </c>
-      <c r="K20" s="89">
+      <c r="K20" s="21">
         <v>1</v>
       </c>
     </row>
@@ -2474,28 +2462,28 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="81">
+      <c r="D17" s="29">
         <v>0.68618421052631595</v>
       </c>
-      <c r="E17" s="82">
+      <c r="E17" s="23">
         <v>0.79802631578947403</v>
       </c>
-      <c r="F17" s="82">
+      <c r="F17" s="23">
         <v>0.78026315789473699</v>
       </c>
-      <c r="G17" s="82">
+      <c r="G17" s="24">
         <v>0.93684210526315803</v>
       </c>
-      <c r="H17" s="82">
+      <c r="H17" s="24">
         <v>0.884210526315789</v>
       </c>
-      <c r="I17" s="82">
+      <c r="I17" s="24">
         <v>0.83684210526315805</v>
       </c>
-      <c r="J17" s="82">
+      <c r="J17" s="23">
         <v>0.68026315789473701</v>
       </c>
-      <c r="K17" s="83">
+      <c r="K17" s="40">
         <v>0.740789473684211</v>
       </c>
     </row>
@@ -2504,28 +2492,28 @@
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="84">
+      <c r="D18" s="14">
         <v>0.68092105263157898</v>
       </c>
-      <c r="E18" s="85">
+      <c r="E18" s="15">
         <v>0.90197368421052604</v>
       </c>
-      <c r="F18" s="85">
+      <c r="F18" s="15">
         <v>0.74802631578947398</v>
       </c>
-      <c r="G18" s="85">
+      <c r="G18" s="16">
         <v>0.92236842105263195</v>
       </c>
-      <c r="H18" s="85">
+      <c r="H18" s="16">
         <v>0.94539473684210495</v>
       </c>
-      <c r="I18" s="85">
+      <c r="I18" s="15">
         <v>0.85197368421052599</v>
       </c>
-      <c r="J18" s="85">
+      <c r="J18" s="15">
         <v>0.64473684210526305</v>
       </c>
-      <c r="K18" s="86">
+      <c r="K18" s="17">
         <v>0.91973684210526296</v>
       </c>
     </row>
@@ -2537,28 +2525,28 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="84">
+      <c r="D19" s="14">
         <v>0.71447368421052604</v>
       </c>
-      <c r="E19" s="85">
+      <c r="E19" s="15">
         <v>0.77434210526315805</v>
       </c>
-      <c r="F19" s="85">
+      <c r="F19" s="15">
         <v>0.78092105263157896</v>
       </c>
-      <c r="G19" s="85">
+      <c r="G19" s="16">
         <v>0.89802631578947401</v>
       </c>
-      <c r="H19" s="85">
+      <c r="H19" s="16">
         <v>0.794078947368421</v>
       </c>
-      <c r="I19" s="85">
+      <c r="I19" s="16">
         <v>0.79342105263157903</v>
       </c>
-      <c r="J19" s="85">
+      <c r="J19" s="15">
         <v>0.68947368421052602</v>
       </c>
-      <c r="K19" s="86">
+      <c r="K19" s="17">
         <v>0.79605263157894701</v>
       </c>
     </row>
@@ -2568,28 +2556,28 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="87">
+      <c r="D20" s="18">
         <v>0.70197368421052597</v>
       </c>
-      <c r="E20" s="88">
+      <c r="E20" s="20">
         <v>0.92302631578947403</v>
       </c>
-      <c r="F20" s="88">
+      <c r="F20" s="19">
         <v>0.78157894736842104</v>
       </c>
-      <c r="G20" s="88">
+      <c r="G20" s="20">
         <v>0.90394736842105305</v>
       </c>
-      <c r="H20" s="88">
+      <c r="H20" s="20">
         <v>0.95657894736842097</v>
       </c>
-      <c r="I20" s="88">
+      <c r="I20" s="19">
         <v>0.80921052631578905</v>
       </c>
-      <c r="J20" s="88">
+      <c r="J20" s="19">
         <v>0.68684210526315803</v>
       </c>
-      <c r="K20" s="89">
+      <c r="K20" s="27">
         <v>0.89736842105263204</v>
       </c>
     </row>
@@ -2937,7 +2925,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3402,28 +3390,28 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="85">
+      <c r="D17" s="15">
         <v>0.69078947368421095</v>
       </c>
-      <c r="E17" s="85">
+      <c r="E17" s="15">
         <v>0.77631578947368396</v>
       </c>
-      <c r="F17" s="85">
+      <c r="F17" s="15">
         <v>0.77302631578947401</v>
       </c>
-      <c r="G17" s="85">
+      <c r="G17" s="16">
         <v>0.94736842105263197</v>
       </c>
-      <c r="H17" s="85">
+      <c r="H17" s="16">
         <v>0.92105263157894701</v>
       </c>
-      <c r="I17" s="85">
+      <c r="I17" s="16">
         <v>0.89144736842105299</v>
       </c>
-      <c r="J17" s="85">
+      <c r="J17" s="15">
         <v>0.69736842105263197</v>
       </c>
-      <c r="K17" s="85">
+      <c r="K17" s="15">
         <v>0.70394736842105299</v>
       </c>
     </row>
@@ -3432,28 +3420,28 @@
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="85">
+      <c r="D18" s="15">
         <v>0.68421052631579005</v>
       </c>
-      <c r="E18" s="85">
+      <c r="E18" s="16">
         <v>0.91118421052631604</v>
       </c>
-      <c r="F18" s="85">
+      <c r="F18" s="15">
         <v>0.75328947368421095</v>
       </c>
-      <c r="G18" s="85">
+      <c r="G18" s="15">
         <v>0.90789473684210498</v>
       </c>
-      <c r="H18" s="85">
+      <c r="H18" s="16">
         <v>0.94407894736842102</v>
       </c>
-      <c r="I18" s="85">
+      <c r="I18" s="15">
         <v>0.88815789473684204</v>
       </c>
-      <c r="J18" s="85">
+      <c r="J18" s="15">
         <v>0.65789473684210498</v>
       </c>
-      <c r="K18" s="85">
+      <c r="K18" s="16">
         <v>0.92434210526315796</v>
       </c>
     </row>
@@ -3465,28 +3453,28 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="85">
+      <c r="D19" s="15">
         <v>0.71381578947368396</v>
       </c>
-      <c r="E19" s="85">
+      <c r="E19" s="15">
         <v>0.75986842105263197</v>
       </c>
-      <c r="F19" s="85">
+      <c r="F19" s="15">
         <v>0.79934210526315796</v>
       </c>
-      <c r="G19" s="85">
+      <c r="G19" s="16">
         <v>0.92434210526315796</v>
       </c>
-      <c r="H19" s="85">
+      <c r="H19" s="15">
         <v>0.74671052631579005</v>
       </c>
-      <c r="I19" s="85">
+      <c r="I19" s="16">
         <v>0.82236842105263197</v>
       </c>
-      <c r="J19" s="85">
+      <c r="J19" s="15">
         <v>0.71052631578947401</v>
       </c>
-      <c r="K19" s="85">
+      <c r="K19" s="16">
         <v>0.81907894736842102</v>
       </c>
     </row>
@@ -3496,28 +3484,28 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="85">
+      <c r="D20" s="15">
         <v>0.71381578947368396</v>
       </c>
-      <c r="E20" s="85">
+      <c r="E20" s="15">
         <v>0.91776315789473695</v>
       </c>
-      <c r="F20" s="85">
+      <c r="F20" s="15">
         <v>0.76315789473684204</v>
       </c>
-      <c r="G20" s="85">
+      <c r="G20" s="15">
         <v>0.90789473684210498</v>
       </c>
-      <c r="H20" s="85">
+      <c r="H20" s="15">
         <v>0.95394736842105299</v>
       </c>
-      <c r="I20" s="85">
+      <c r="I20" s="15">
         <v>0.82236842105263197</v>
       </c>
-      <c r="J20" s="85">
+      <c r="J20" s="15">
         <v>0.68092105263157898</v>
       </c>
-      <c r="K20" s="85">
+      <c r="K20" s="15">
         <v>0.92105263157894701</v>
       </c>
     </row>
@@ -3715,13 +3703,12 @@
     <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -4172,28 +4159,28 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="90">
+      <c r="D17" s="81">
         <v>7</v>
       </c>
-      <c r="E17" s="90">
+      <c r="E17" s="59">
         <v>218</v>
       </c>
-      <c r="F17" s="90">
+      <c r="F17" s="59">
         <v>128</v>
       </c>
-      <c r="G17" s="90">
+      <c r="G17" s="82">
         <v>219</v>
       </c>
-      <c r="H17" s="90">
+      <c r="H17" s="82">
         <v>223</v>
       </c>
-      <c r="I17" s="90">
+      <c r="I17" s="82">
         <v>224</v>
       </c>
-      <c r="J17" s="90">
+      <c r="J17" s="59">
         <v>56</v>
       </c>
-      <c r="K17" s="90">
+      <c r="K17" s="83">
         <v>221</v>
       </c>
     </row>
@@ -4202,28 +4189,28 @@
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="90">
+      <c r="D18" s="71">
         <v>18</v>
       </c>
-      <c r="E18" s="90">
+      <c r="E18" s="37">
         <v>50</v>
       </c>
-      <c r="F18" s="90">
+      <c r="F18" s="36">
         <v>57</v>
       </c>
-      <c r="G18" s="90">
+      <c r="G18" s="37">
         <v>45</v>
       </c>
-      <c r="H18" s="90">
+      <c r="H18" s="37">
         <v>143</v>
       </c>
-      <c r="I18" s="90">
+      <c r="I18" s="36">
         <v>159</v>
       </c>
-      <c r="J18" s="90">
+      <c r="J18" s="36">
         <v>12</v>
       </c>
-      <c r="K18" s="90">
+      <c r="K18" s="72">
         <v>170</v>
       </c>
     </row>
@@ -4235,28 +4222,28 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="90">
+      <c r="D19" s="71">
         <v>16</v>
       </c>
-      <c r="E19" s="90">
+      <c r="E19" s="36">
         <v>218</v>
       </c>
-      <c r="F19" s="90">
+      <c r="F19" s="36">
         <v>113</v>
       </c>
-      <c r="G19" s="90">
+      <c r="G19" s="37">
         <v>220</v>
       </c>
-      <c r="H19" s="90">
+      <c r="H19" s="37">
         <v>211</v>
       </c>
-      <c r="I19" s="90">
+      <c r="I19" s="37">
         <v>213</v>
       </c>
-      <c r="J19" s="90">
+      <c r="J19" s="36">
         <v>20</v>
       </c>
-      <c r="K19" s="90">
+      <c r="K19" s="84">
         <v>205</v>
       </c>
     </row>
@@ -4266,28 +4253,28 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="90">
+      <c r="D20" s="74">
         <v>21</v>
       </c>
-      <c r="E20" s="90">
+      <c r="E20" s="85">
         <v>222</v>
       </c>
-      <c r="F20" s="90">
+      <c r="F20" s="68">
         <v>139</v>
       </c>
-      <c r="G20" s="90">
+      <c r="G20" s="68">
         <v>79</v>
       </c>
-      <c r="H20" s="90">
+      <c r="H20" s="85">
         <v>115</v>
       </c>
-      <c r="I20" s="90">
+      <c r="I20" s="68">
         <v>176</v>
       </c>
-      <c r="J20" s="90">
+      <c r="J20" s="68">
         <v>12</v>
       </c>
-      <c r="K20" s="90">
+      <c r="K20" s="86">
         <v>55</v>
       </c>
     </row>
@@ -4942,28 +4929,28 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="90">
+      <c r="D17" s="81">
         <v>8.5</v>
       </c>
-      <c r="E17" s="90">
+      <c r="E17" s="59">
         <v>118.5</v>
       </c>
-      <c r="F17" s="90">
+      <c r="F17" s="59">
         <v>65</v>
       </c>
-      <c r="G17" s="90">
+      <c r="G17" s="82">
         <v>210</v>
       </c>
-      <c r="H17" s="90">
+      <c r="H17" s="82">
         <v>183.2</v>
       </c>
-      <c r="I17" s="90">
+      <c r="I17" s="82">
         <v>139.80000000000001</v>
       </c>
-      <c r="J17" s="90">
+      <c r="J17" s="59">
         <v>20.8</v>
       </c>
-      <c r="K17" s="90">
+      <c r="K17" s="83">
         <v>73.7</v>
       </c>
     </row>
@@ -4972,28 +4959,28 @@
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="90">
+      <c r="D18" s="71">
         <v>12.1</v>
       </c>
-      <c r="E18" s="90">
+      <c r="E18" s="37">
         <v>106</v>
       </c>
-      <c r="F18" s="90">
+      <c r="F18" s="36">
         <v>55.1</v>
       </c>
-      <c r="G18" s="90">
+      <c r="G18" s="37">
         <v>115.4</v>
       </c>
-      <c r="H18" s="90">
+      <c r="H18" s="37">
         <v>115</v>
       </c>
-      <c r="I18" s="90">
+      <c r="I18" s="36">
         <v>112.1</v>
       </c>
-      <c r="J18" s="90">
+      <c r="J18" s="36">
         <v>10.3</v>
       </c>
-      <c r="K18" s="90">
+      <c r="K18" s="72">
         <v>118.5</v>
       </c>
     </row>
@@ -5005,28 +4992,28 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="90">
+      <c r="D19" s="71">
         <v>17.5</v>
       </c>
-      <c r="E19" s="90">
+      <c r="E19" s="36">
         <v>101.7</v>
       </c>
-      <c r="F19" s="90">
+      <c r="F19" s="36">
         <v>62.4</v>
       </c>
-      <c r="G19" s="90">
+      <c r="G19" s="37">
         <v>196.5</v>
       </c>
-      <c r="H19" s="90">
+      <c r="H19" s="37">
         <v>99</v>
       </c>
-      <c r="I19" s="90">
+      <c r="I19" s="37">
         <v>115</v>
       </c>
-      <c r="J19" s="90">
+      <c r="J19" s="36">
         <v>16.5</v>
       </c>
-      <c r="K19" s="90">
+      <c r="K19" s="84">
         <v>128.19999999999999</v>
       </c>
     </row>
@@ -5036,28 +5023,28 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="90">
+      <c r="D20" s="74">
         <v>17.399999999999999</v>
       </c>
-      <c r="E20" s="90">
+      <c r="E20" s="85">
         <v>144.69999999999999</v>
       </c>
-      <c r="F20" s="90">
+      <c r="F20" s="68">
         <v>70.7</v>
       </c>
-      <c r="G20" s="90">
+      <c r="G20" s="68">
         <v>100</v>
       </c>
-      <c r="H20" s="90">
+      <c r="H20" s="85">
         <v>114</v>
       </c>
-      <c r="I20" s="90">
+      <c r="I20" s="68">
         <v>91.7</v>
       </c>
-      <c r="J20" s="90">
+      <c r="J20" s="68">
         <v>14</v>
       </c>
-      <c r="K20" s="90">
+      <c r="K20" s="86">
         <v>99.2</v>
       </c>
     </row>
@@ -5325,30 +5312,14 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="36">
-        <v>1</v>
-      </c>
-      <c r="E5" s="36">
-        <v>1</v>
-      </c>
-      <c r="F5" s="36">
-        <v>1</v>
-      </c>
-      <c r="G5" s="37">
-        <v>1</v>
-      </c>
-      <c r="H5" s="37">
-        <v>1</v>
-      </c>
-      <c r="I5" s="37">
-        <v>1</v>
-      </c>
-      <c r="J5" s="36">
-        <v>1</v>
-      </c>
-      <c r="K5" s="36">
-        <v>1</v>
-      </c>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
@@ -5388,30 +5359,14 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="36">
-        <v>1</v>
-      </c>
-      <c r="E7" s="36">
-        <v>1</v>
-      </c>
-      <c r="F7" s="36">
-        <v>1</v>
-      </c>
-      <c r="G7" s="37">
-        <v>1</v>
-      </c>
-      <c r="H7" s="37">
-        <v>1</v>
-      </c>
-      <c r="I7" s="37">
-        <v>1</v>
-      </c>
-      <c r="J7" s="36">
-        <v>1</v>
-      </c>
-      <c r="K7" s="36">
-        <v>1</v>
-      </c>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
@@ -5454,30 +5409,14 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="36">
-        <v>1</v>
-      </c>
-      <c r="E9" s="36">
-        <v>1</v>
-      </c>
-      <c r="F9" s="36">
-        <v>1</v>
-      </c>
-      <c r="G9" s="37">
-        <v>1</v>
-      </c>
-      <c r="H9" s="37">
-        <v>1</v>
-      </c>
-      <c r="I9" s="36">
-        <v>1</v>
-      </c>
-      <c r="J9" s="36">
-        <v>1</v>
-      </c>
-      <c r="K9" s="37">
-        <v>1</v>
-      </c>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="37"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
@@ -5517,30 +5456,14 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="37">
-        <v>1</v>
-      </c>
-      <c r="E11" s="36">
-        <v>1</v>
-      </c>
-      <c r="F11" s="36">
-        <v>1</v>
-      </c>
-      <c r="G11" s="37">
-        <v>1</v>
-      </c>
-      <c r="H11" s="37">
-        <v>1</v>
-      </c>
-      <c r="I11" s="36">
-        <v>1</v>
-      </c>
-      <c r="J11" s="36">
-        <v>1</v>
-      </c>
-      <c r="K11" s="37">
-        <v>1</v>
-      </c>
+      <c r="D11" s="37"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="37"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
@@ -5583,30 +5506,14 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="37">
-        <v>1</v>
-      </c>
-      <c r="E13" s="36">
-        <v>1</v>
-      </c>
-      <c r="F13" s="36">
-        <v>1</v>
-      </c>
-      <c r="G13" s="37">
-        <v>1</v>
-      </c>
-      <c r="H13" s="36">
-        <v>1</v>
-      </c>
-      <c r="I13" s="37">
-        <v>1</v>
-      </c>
-      <c r="J13" s="36">
-        <v>1</v>
-      </c>
-      <c r="K13" s="37">
-        <v>1</v>
-      </c>
+      <c r="D13" s="37"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="37"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
@@ -5646,30 +5553,14 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="36">
-        <v>1</v>
-      </c>
-      <c r="E15" s="36">
-        <v>1</v>
-      </c>
-      <c r="F15" s="36">
-        <v>1</v>
-      </c>
-      <c r="G15" s="36">
-        <v>1</v>
-      </c>
-      <c r="H15" s="36">
-        <v>1</v>
-      </c>
-      <c r="I15" s="36">
-        <v>1</v>
-      </c>
-      <c r="J15" s="36">
-        <v>1</v>
-      </c>
-      <c r="K15" s="36">
-        <v>1</v>
-      </c>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
@@ -5712,58 +5603,42 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="90">
-        <v>1</v>
-      </c>
-      <c r="E17" s="90">
-        <v>1</v>
-      </c>
-      <c r="F17" s="90">
-        <v>1</v>
-      </c>
-      <c r="G17" s="90">
-        <v>1</v>
-      </c>
-      <c r="H17" s="90">
-        <v>1</v>
-      </c>
-      <c r="I17" s="90">
-        <v>1</v>
-      </c>
-      <c r="J17" s="90">
-        <v>1</v>
-      </c>
-      <c r="K17" s="90">
-        <v>1</v>
-      </c>
+      <c r="D17" s="81"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="82"/>
+      <c r="H17" s="82"/>
+      <c r="I17" s="82"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="83"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="90">
+      <c r="D18" s="71">
         <v>3</v>
       </c>
-      <c r="E18" s="90">
+      <c r="E18" s="37">
         <v>9</v>
       </c>
-      <c r="F18" s="90">
-        <v>2</v>
-      </c>
-      <c r="G18" s="90">
+      <c r="F18" s="36">
+        <v>2</v>
+      </c>
+      <c r="G18" s="37">
         <v>3</v>
       </c>
-      <c r="H18" s="90">
+      <c r="H18" s="37">
         <v>7</v>
       </c>
-      <c r="I18" s="90">
+      <c r="I18" s="36">
         <v>4</v>
       </c>
-      <c r="J18" s="90">
+      <c r="J18" s="36">
         <v>3</v>
       </c>
-      <c r="K18" s="90">
+      <c r="K18" s="72">
         <v>9</v>
       </c>
     </row>
@@ -5775,30 +5650,14 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="90">
-        <v>1</v>
-      </c>
-      <c r="E19" s="90">
-        <v>1</v>
-      </c>
-      <c r="F19" s="90">
-        <v>1</v>
-      </c>
-      <c r="G19" s="90">
-        <v>1</v>
-      </c>
-      <c r="H19" s="90">
-        <v>1</v>
-      </c>
-      <c r="I19" s="90">
-        <v>1</v>
-      </c>
-      <c r="J19" s="90">
-        <v>1</v>
-      </c>
-      <c r="K19" s="90">
-        <v>1</v>
-      </c>
+      <c r="D19" s="71"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="84"/>
     </row>
     <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
@@ -5806,28 +5665,28 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="90">
-        <v>2</v>
-      </c>
-      <c r="E20" s="90">
+      <c r="D20" s="74">
+        <v>2</v>
+      </c>
+      <c r="E20" s="85">
         <v>5</v>
       </c>
-      <c r="F20" s="90">
-        <v>2</v>
-      </c>
-      <c r="G20" s="90">
+      <c r="F20" s="68">
+        <v>2</v>
+      </c>
+      <c r="G20" s="68">
         <v>6</v>
       </c>
-      <c r="H20" s="90">
+      <c r="H20" s="85">
         <v>9</v>
       </c>
-      <c r="I20" s="90">
+      <c r="I20" s="68">
         <v>3</v>
       </c>
-      <c r="J20" s="90">
-        <v>2</v>
-      </c>
-      <c r="K20" s="90">
+      <c r="J20" s="68">
+        <v>2</v>
+      </c>
+      <c r="K20" s="86">
         <v>6</v>
       </c>
     </row>
@@ -6095,30 +5954,14 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="36">
-        <v>1</v>
-      </c>
-      <c r="E5" s="36">
-        <v>1</v>
-      </c>
-      <c r="F5" s="36">
-        <v>1</v>
-      </c>
-      <c r="G5" s="37">
-        <v>1</v>
-      </c>
-      <c r="H5" s="37">
-        <v>1</v>
-      </c>
-      <c r="I5" s="37">
-        <v>1</v>
-      </c>
-      <c r="J5" s="36">
-        <v>1</v>
-      </c>
-      <c r="K5" s="36">
-        <v>1</v>
-      </c>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
@@ -6158,30 +6001,14 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="36">
-        <v>1</v>
-      </c>
-      <c r="E7" s="36">
-        <v>1</v>
-      </c>
-      <c r="F7" s="36">
-        <v>1</v>
-      </c>
-      <c r="G7" s="37">
-        <v>1</v>
-      </c>
-      <c r="H7" s="37">
-        <v>1</v>
-      </c>
-      <c r="I7" s="37">
-        <v>1</v>
-      </c>
-      <c r="J7" s="36">
-        <v>1</v>
-      </c>
-      <c r="K7" s="36">
-        <v>1</v>
-      </c>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
@@ -6224,30 +6051,14 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="36">
-        <v>1</v>
-      </c>
-      <c r="E9" s="36">
-        <v>1</v>
-      </c>
-      <c r="F9" s="36">
-        <v>1</v>
-      </c>
-      <c r="G9" s="37">
-        <v>1</v>
-      </c>
-      <c r="H9" s="37">
-        <v>1</v>
-      </c>
-      <c r="I9" s="36">
-        <v>1</v>
-      </c>
-      <c r="J9" s="36">
-        <v>1</v>
-      </c>
-      <c r="K9" s="37">
-        <v>1</v>
-      </c>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="37"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
@@ -6287,30 +6098,14 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="37">
-        <v>1</v>
-      </c>
-      <c r="E11" s="36">
-        <v>1</v>
-      </c>
-      <c r="F11" s="36">
-        <v>1</v>
-      </c>
-      <c r="G11" s="37">
-        <v>1</v>
-      </c>
-      <c r="H11" s="37">
-        <v>1</v>
-      </c>
-      <c r="I11" s="36">
-        <v>1</v>
-      </c>
-      <c r="J11" s="36">
-        <v>1</v>
-      </c>
-      <c r="K11" s="37">
-        <v>1</v>
-      </c>
+      <c r="D11" s="37"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="37"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
@@ -6353,30 +6148,14 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="37">
-        <v>1</v>
-      </c>
-      <c r="E13" s="36">
-        <v>1</v>
-      </c>
-      <c r="F13" s="36">
-        <v>1</v>
-      </c>
-      <c r="G13" s="37">
-        <v>1</v>
-      </c>
-      <c r="H13" s="36">
-        <v>1</v>
-      </c>
-      <c r="I13" s="37">
-        <v>1</v>
-      </c>
-      <c r="J13" s="36">
-        <v>1</v>
-      </c>
-      <c r="K13" s="37">
-        <v>1</v>
-      </c>
+      <c r="D13" s="37"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="37"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
@@ -6416,30 +6195,14 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="36">
-        <v>1</v>
-      </c>
-      <c r="E15" s="36">
-        <v>1</v>
-      </c>
-      <c r="F15" s="36">
-        <v>1</v>
-      </c>
-      <c r="G15" s="36">
-        <v>1</v>
-      </c>
-      <c r="H15" s="36">
-        <v>1</v>
-      </c>
-      <c r="I15" s="36">
-        <v>1</v>
-      </c>
-      <c r="J15" s="36">
-        <v>1</v>
-      </c>
-      <c r="K15" s="36">
-        <v>1</v>
-      </c>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
@@ -6482,58 +6245,42 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="90">
-        <v>1</v>
-      </c>
-      <c r="E17" s="90">
-        <v>1</v>
-      </c>
-      <c r="F17" s="90">
-        <v>1</v>
-      </c>
-      <c r="G17" s="90">
-        <v>1</v>
-      </c>
-      <c r="H17" s="90">
-        <v>1</v>
-      </c>
-      <c r="I17" s="90">
-        <v>1</v>
-      </c>
-      <c r="J17" s="90">
-        <v>1</v>
-      </c>
-      <c r="K17" s="90">
-        <v>1</v>
-      </c>
+      <c r="D17" s="81"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="82"/>
+      <c r="H17" s="82"/>
+      <c r="I17" s="82"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="83"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="90">
+      <c r="D18" s="71">
         <v>3.1</v>
       </c>
-      <c r="E18" s="90">
+      <c r="E18" s="37">
         <v>4.9000000000000004</v>
       </c>
-      <c r="F18" s="90">
+      <c r="F18" s="36">
         <v>3.1</v>
       </c>
-      <c r="G18" s="90">
+      <c r="G18" s="37">
         <v>4.5</v>
       </c>
-      <c r="H18" s="90">
+      <c r="H18" s="37">
         <v>4.5999999999999996</v>
       </c>
-      <c r="I18" s="90">
+      <c r="I18" s="36">
         <v>4.2</v>
       </c>
-      <c r="J18" s="90">
+      <c r="J18" s="36">
         <v>4</v>
       </c>
-      <c r="K18" s="90">
+      <c r="K18" s="72">
         <v>4.0999999999999996</v>
       </c>
     </row>
@@ -6545,30 +6292,14 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="90">
-        <v>1</v>
-      </c>
-      <c r="E19" s="90">
-        <v>1</v>
-      </c>
-      <c r="F19" s="90">
-        <v>1</v>
-      </c>
-      <c r="G19" s="90">
-        <v>1</v>
-      </c>
-      <c r="H19" s="90">
-        <v>1</v>
-      </c>
-      <c r="I19" s="90">
-        <v>1</v>
-      </c>
-      <c r="J19" s="90">
-        <v>1</v>
-      </c>
-      <c r="K19" s="90">
-        <v>1</v>
-      </c>
+      <c r="D19" s="71"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="84"/>
     </row>
     <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
@@ -6576,28 +6307,28 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="90">
+      <c r="D20" s="74">
         <v>3.6</v>
       </c>
-      <c r="E20" s="90">
+      <c r="E20" s="85">
         <v>4.3</v>
       </c>
-      <c r="F20" s="90">
+      <c r="F20" s="68">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G20" s="90">
+      <c r="G20" s="68">
         <v>3.7</v>
       </c>
-      <c r="H20" s="90">
+      <c r="H20" s="85">
         <v>6.5</v>
       </c>
-      <c r="I20" s="90">
+      <c r="I20" s="68">
         <v>4.3</v>
       </c>
-      <c r="J20" s="90">
+      <c r="J20" s="68">
         <v>3.7</v>
       </c>
-      <c r="K20" s="90">
+      <c r="K20" s="86">
         <v>3.7</v>
       </c>
     </row>
